--- a/project1/us-climate-data-dict-v1.xlsx
+++ b/project1/us-climate-data-dict-v1.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/user/Downloads/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8ADE524-28CF-724F-9BDA-58DD33EA1A98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="climate_risk_projections" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="state_climate_policies" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="facility_GHG_emissions" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="state_disasters" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="state_temperatures" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="state_GHG_emissions" sheetId="6" r:id="rId9"/>
+    <sheet name="climate_risk_projections" sheetId="1" r:id="rId1"/>
+    <sheet name="state_climate_policies" sheetId="2" r:id="rId2"/>
+    <sheet name="facility_GHG_emissions" sheetId="3" r:id="rId3"/>
+    <sheet name="state_disasters" sheetId="4" r:id="rId4"/>
+    <sheet name="state_temperatures" sheetId="5" r:id="rId5"/>
+    <sheet name="state_GHG_emissions" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
       <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId10" roundtripDataChecksum="3k2xdIFLM1ydC33w4+vGBGtyRNSoKo8djkIkOveS5ks="/>
@@ -21,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="110">
   <si>
     <t>Origin Source</t>
   </si>
@@ -62,57 +71,15 @@
     <t>state</t>
   </si>
   <si>
-    <t>temp_chg</t>
-  </si>
-  <si>
     <t>FLOAT</t>
   </si>
   <si>
-    <t>prep_chg</t>
-  </si>
-  <si>
-    <t>prep_ext</t>
-  </si>
-  <si>
-    <t>cold_ext</t>
-  </si>
-  <si>
-    <t>heat_ext</t>
-  </si>
-  <si>
-    <t>dry_chg</t>
-  </si>
-  <si>
-    <t>imp_surface</t>
-  </si>
-  <si>
-    <t>house_den</t>
-  </si>
-  <si>
-    <t>pop_est</t>
-  </si>
-  <si>
-    <t>house_slr</t>
-  </si>
-  <si>
-    <t>road_slr</t>
-  </si>
-  <si>
     <t>hazard</t>
   </si>
   <si>
-    <t>expos</t>
-  </si>
-  <si>
-    <t>vulner</t>
-  </si>
-  <si>
     <t>risk</t>
   </si>
   <si>
-    <t>risk_100</t>
-  </si>
-  <si>
     <t>Extraction Scripts</t>
   </si>
   <si>
@@ -137,9 +104,6 @@
     <t>state_climate_policies</t>
   </si>
   <si>
-    <t>policy_id</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
@@ -176,9 +140,6 @@
     <t>INTEGER</t>
   </si>
   <si>
-    <t>reporting_year</t>
-  </si>
-  <si>
     <t>facility_name</t>
   </si>
   <si>
@@ -227,15 +188,6 @@
     <t>gs://us_climate/initial-loads/state_disasters</t>
   </si>
   <si>
-    <t>drought, flooding, freeze, severe_storm, tropical_cyclone, wild_fire, winter_storm</t>
-  </si>
-  <si>
-    <t>drought attributes</t>
-  </si>
-  <si>
-    <t>drought_id</t>
-  </si>
-  <si>
     <t>year</t>
   </si>
   <si>
@@ -245,72 +197,36 @@
     <t>drought_cost_range</t>
   </si>
   <si>
-    <t>flooding attributes</t>
-  </si>
-  <si>
-    <t>flooding_id</t>
-  </si>
-  <si>
     <t>flooding_count</t>
   </si>
   <si>
     <t>flooding_cost_range</t>
   </si>
   <si>
-    <t>freeze attributes</t>
-  </si>
-  <si>
-    <t>freeze_id</t>
-  </si>
-  <si>
     <t>freeze_count</t>
   </si>
   <si>
     <t>freeze_cost_range</t>
   </si>
   <si>
-    <t>severe_storm attributes</t>
-  </si>
-  <si>
-    <t>severe_storm_id</t>
-  </si>
-  <si>
     <t>severe_storm_count</t>
   </si>
   <si>
     <t>severe_storm_cost_range</t>
   </si>
   <si>
-    <t>tropical_cyclone attributes</t>
-  </si>
-  <si>
-    <t>tropical_cyclone_id</t>
-  </si>
-  <si>
     <t>tropical_cyclone_count</t>
   </si>
   <si>
     <t>tropical_cyclone_cost_range</t>
   </si>
   <si>
-    <t>wild_fire attributes</t>
-  </si>
-  <si>
-    <t>wild_fire_id</t>
-  </si>
-  <si>
     <t>wild_fire_count</t>
   </si>
   <si>
     <t>wild_fire_cost_range</t>
   </si>
   <si>
-    <t>winter_storm attributes</t>
-  </si>
-  <si>
-    <t>winter_storm_id</t>
-  </si>
-  <si>
     <t>winter_storm_count</t>
   </si>
   <si>
@@ -329,9 +245,6 @@
     <t>state_average_temperaure</t>
   </si>
   <si>
-    <t>temperature_id</t>
-  </si>
-  <si>
     <t>month</t>
   </si>
   <si>
@@ -399,57 +312,119 @@
   </si>
   <si>
     <t>units are in million metric tons of CO2 equivalents or CO2e</t>
+  </si>
+  <si>
+    <t>temp_change</t>
+  </si>
+  <si>
+    <t>prep_change</t>
+  </si>
+  <si>
+    <t>extreme_precipitation</t>
+  </si>
+  <si>
+    <t>extreme_cold</t>
+  </si>
+  <si>
+    <t>extreme_heat</t>
+  </si>
+  <si>
+    <t>dry_change</t>
+  </si>
+  <si>
+    <t>impervious_surface</t>
+  </si>
+  <si>
+    <t>house_density</t>
+  </si>
+  <si>
+    <t>pop_estimate</t>
+  </si>
+  <si>
+    <t>low_lying_houses</t>
+  </si>
+  <si>
+    <t>low_lying_roads</t>
+  </si>
+  <si>
+    <t>exposure</t>
+  </si>
+  <si>
+    <t>vulnerability</t>
+  </si>
+  <si>
+    <t>risk_percentage</t>
+  </si>
+  <si>
+    <t>frs_id</t>
+  </si>
+  <si>
+    <t>state_disasters</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="10"/>
       <name val="等线"/>
     </font>
     <font>
       <b/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF467886"/>
       <name val="等线"/>
     </font>
     <font>
       <u/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="等线"/>
     </font>
     <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -457,80 +432,57 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -720,23 +672,25 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Z999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A2" zoomScale="188" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.63"/>
+    <col min="1" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:26" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -768,11 +722,11 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" ht="13.5" customHeight="1">
+    <row r="2" spans="1:26" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="1"/>
@@ -800,7 +754,7 @@
       <c r="Y2" s="1"/>
       <c r="Z2" s="1"/>
     </row>
-    <row r="3" ht="13.5" customHeight="1">
+    <row r="3" spans="1:26" ht="13.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -832,7 +786,7 @@
       <c r="Y3" s="1"/>
       <c r="Z3" s="1"/>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
+    <row r="4" spans="1:26" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -864,7 +818,7 @@
       <c r="Y4" s="1"/>
       <c r="Z4" s="1"/>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
+    <row r="5" spans="1:26" ht="13.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -896,7 +850,7 @@
       <c r="Y5" s="1"/>
       <c r="Z5" s="1"/>
     </row>
-    <row r="6" ht="13.5" customHeight="1">
+    <row r="6" spans="1:26" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -924,12 +878,12 @@
       <c r="Y6" s="1"/>
       <c r="Z6" s="1"/>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
@@ -954,7 +908,7 @@
       <c r="Y7" s="1"/>
       <c r="Z7" s="1"/>
     </row>
-    <row r="8" ht="13.5" customHeight="1">
+    <row r="8" spans="1:26" ht="13.5" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -986,12 +940,12 @@
       <c r="Y8" s="1"/>
       <c r="Z8" s="1"/>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
+    <row r="9" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>94</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1018,12 +972,12 @@
       <c r="Y9" s="1"/>
       <c r="Z9" s="1"/>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A10" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>14</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -1050,12 +1004,12 @@
       <c r="Y10" s="1"/>
       <c r="Z10" s="1"/>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="1" t="s">
-        <v>15</v>
+    <row r="11" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A11" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1082,12 +1036,12 @@
       <c r="Y11" s="1"/>
       <c r="Z11" s="1"/>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="1" t="s">
-        <v>16</v>
+    <row r="12" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A12" s="8" t="s">
+        <v>97</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1114,12 +1068,12 @@
       <c r="Y12" s="1"/>
       <c r="Z12" s="1"/>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="1" t="s">
-        <v>17</v>
+    <row r="13" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A13" s="8" t="s">
+        <v>98</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1146,12 +1100,12 @@
       <c r="Y13" s="1"/>
       <c r="Z13" s="1"/>
     </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>18</v>
+    <row r="14" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A14" s="8" t="s">
+        <v>99</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1178,12 +1132,12 @@
       <c r="Y14" s="1"/>
       <c r="Z14" s="1"/>
     </row>
-    <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="1" t="s">
-        <v>19</v>
+    <row r="15" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A15" s="8" t="s">
+        <v>100</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -1210,12 +1164,12 @@
       <c r="Y15" s="1"/>
       <c r="Z15" s="1"/>
     </row>
-    <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="1" t="s">
-        <v>20</v>
+    <row r="16" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A16" s="8" t="s">
+        <v>101</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1242,12 +1196,12 @@
       <c r="Y16" s="1"/>
       <c r="Z16" s="1"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="1" t="s">
-        <v>21</v>
+    <row r="17" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A17" s="8" t="s">
+        <v>102</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1274,12 +1228,12 @@
       <c r="Y17" s="1"/>
       <c r="Z17" s="1"/>
     </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="1" t="s">
-        <v>22</v>
+    <row r="18" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A18" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1306,12 +1260,12 @@
       <c r="Y18" s="1"/>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="1" t="s">
-        <v>23</v>
+    <row r="19" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A19" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1338,12 +1292,12 @@
       <c r="Y19" s="1"/>
       <c r="Z19" s="1"/>
     </row>
-    <row r="20" ht="13.5" customHeight="1">
+    <row r="20" spans="1:26" ht="13.5" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1370,101 +1324,70 @@
       <c r="Y20" s="1"/>
       <c r="Z20" s="1"/>
     </row>
-    <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="1" t="s">
-        <v>25</v>
+    <row r="21" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A21" s="8" t="s">
+        <v>105</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="1"/>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="1"/>
-      <c r="Z21" s="1"/>
-    </row>
-    <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A22" s="8" t="s">
+        <v>106</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" ht="13.5" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:26" ht="13.5" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>107</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" ht="13.5" customHeight="1">
-      <c r="A25" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" ht="13.5" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:26" ht="13.5" customHeight="1">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B26" s="1"/>
     </row>
-    <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="4" t="s">
-        <v>30</v>
+    <row r="27" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B27" s="1"/>
     </row>
-    <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="1"/>
-    </row>
-    <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="1"/>
-    </row>
+    <row r="28" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A28" s="1"/>
+    </row>
+    <row r="29" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A29" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A30" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:26" ht="13.5" customHeight="1">
+      <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:26" ht="13.5" customHeight="1"/>
     <row r="33" ht="13.5" customHeight="1"/>
     <row r="34" ht="13.5" customHeight="1"/>
     <row r="35" ht="13.5" customHeight="1"/>
@@ -2432,173 +2355,163 @@
     <row r="997" ht="13.5" customHeight="1"/>
     <row r="998" ht="13.5" customHeight="1"/>
     <row r="999" ht="13.5" customHeight="1"/>
-    <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B999"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="191" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.63"/>
+    <col min="1" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" ht="13.5" customHeight="1">
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1">
+      <c r="B2" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="13.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" ht="13.5" customHeight="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" ht="13.5" customHeight="1">
       <c r="A8" s="1" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" ht="13.5" customHeight="1">
+    <row r="9" spans="1:2" ht="13.5" customHeight="1">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" ht="13.5" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13.5" customHeight="1">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="13.5" customHeight="1">
       <c r="A11" s="1" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="13.5" customHeight="1">
       <c r="A12" s="1" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" ht="13.5" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="13.5" customHeight="1">
       <c r="A13" s="1" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" ht="13.5" customHeight="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="13.5" customHeight="1">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A15" s="3" t="s">
+        <v>16</v>
+      </c>
       <c r="B15" s="1"/>
     </row>
-    <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="4" t="s">
-        <v>30</v>
+    <row r="16" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B16" s="1"/>
     </row>
-    <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" ht="13.5" customHeight="1"/>
-    <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="1"/>
-    </row>
-    <row r="21" ht="13.5" customHeight="1"/>
-    <row r="22" ht="13.5" customHeight="1"/>
-    <row r="23" ht="13.5" customHeight="1"/>
-    <row r="24" ht="13.5" customHeight="1"/>
-    <row r="25" ht="13.5" customHeight="1"/>
-    <row r="26" ht="13.5" customHeight="1"/>
-    <row r="27" ht="13.5" customHeight="1"/>
-    <row r="28" ht="13.5" customHeight="1"/>
-    <row r="29" ht="13.5" customHeight="1"/>
-    <row r="30" ht="13.5" customHeight="1"/>
-    <row r="31" ht="13.5" customHeight="1"/>
-    <row r="32" ht="13.5" customHeight="1"/>
+    <row r="17" spans="1:1" ht="13.5" customHeight="1"/>
+    <row r="18" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A18" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="13.5" customHeight="1">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:1" ht="13.5" customHeight="1"/>
+    <row r="21" spans="1:1" ht="13.5" customHeight="1"/>
+    <row r="22" spans="1:1" ht="13.5" customHeight="1"/>
+    <row r="23" spans="1:1" ht="13.5" customHeight="1"/>
+    <row r="24" spans="1:1" ht="13.5" customHeight="1"/>
+    <row r="25" spans="1:1" ht="13.5" customHeight="1"/>
+    <row r="26" spans="1:1" ht="13.5" customHeight="1"/>
+    <row r="27" spans="1:1" ht="13.5" customHeight="1"/>
+    <row r="28" spans="1:1" ht="13.5" customHeight="1"/>
+    <row r="29" spans="1:1" ht="13.5" customHeight="1"/>
+    <row r="30" spans="1:1" ht="13.5" customHeight="1"/>
+    <row r="31" spans="1:1" ht="13.5" customHeight="1"/>
+    <row r="32" spans="1:1" ht="13.5" customHeight="1"/>
     <row r="33" ht="13.5" customHeight="1"/>
     <row r="34" ht="13.5" customHeight="1"/>
     <row r="35" ht="13.5" customHeight="1"/>
@@ -3566,237 +3479,234 @@
     <row r="997" ht="13.5" customHeight="1"/>
     <row r="998" ht="13.5" customHeight="1"/>
     <row r="999" ht="13.5" customHeight="1"/>
-    <row r="1000" ht="13.5" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B1010"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="178" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.63"/>
+    <col min="1" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" ht="13.5" customHeight="1">
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1">
+      <c r="B2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="13.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1">
+      <c r="B3" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" ht="13.5" customHeight="1">
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1">
+      <c r="B5" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>51</v>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A9" s="8" t="s">
+        <v>108</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A22" s="6"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" ht="13.5" customHeight="1"/>
+    <row r="26" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A26" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A28" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A30" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="1"/>
-    </row>
-    <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="1"/>
-    </row>
-    <row r="25" ht="13.5" customHeight="1"/>
-    <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" ht="13.5" customHeight="1"/>
-    <row r="32" ht="13.5" customHeight="1"/>
+    <row r="31" spans="1:2" ht="13.5" customHeight="1"/>
+    <row r="32" spans="1:2" ht="13.5" customHeight="1"/>
     <row r="33" ht="13.5" customHeight="1"/>
     <row r="34" ht="13.5" customHeight="1"/>
     <row r="35" ht="13.5" customHeight="1"/>
@@ -4777,1606 +4687,236 @@
     <row r="1010" ht="13.5" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B1010"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A5" zoomScale="184" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.63"/>
+    <col min="1" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" ht="13.5" customHeight="1">
+      <c r="B1" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1">
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="13.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1">
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" ht="13.5" customHeight="1">
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1">
+      <c r="B5" s="8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="3" t="s">
+    <row r="7" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A7" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
       <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B14" s="4"/>
-    </row>
-    <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>12</v>
+    <row r="14" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="18" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="3"/>
-      <c r="B20" s="3"/>
-    </row>
-    <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="B21" s="4"/>
-    </row>
-    <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" ht="13.5" customHeight="1">
-      <c r="A23" s="3" t="s">
-        <v>12</v>
+    <row r="20" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A21" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" ht="13.5" customHeight="1">
+    <row r="24" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" ht="13.5" customHeight="1">
       <c r="A25" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="3"/>
-      <c r="B27" s="3"/>
-    </row>
-    <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="4"/>
-    </row>
-    <row r="29" ht="13.5" customHeight="1">
-      <c r="A29" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" ht="13.5" customHeight="1">
-      <c r="A30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" ht="13.5" customHeight="1">
-      <c r="A31" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" ht="13.5" customHeight="1">
-      <c r="A32" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" ht="13.5" customHeight="1">
-      <c r="A33" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="34" ht="13.5" customHeight="1">
-      <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-    </row>
-    <row r="35" ht="13.5" customHeight="1">
-      <c r="A35" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B35" s="4"/>
-    </row>
-    <row r="36" ht="13.5" customHeight="1">
-      <c r="A36" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="37" ht="13.5" customHeight="1">
-      <c r="A37" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" ht="13.5" customHeight="1">
-      <c r="A38" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="39" ht="13.5" customHeight="1">
-      <c r="A39" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" ht="13.5" customHeight="1">
-      <c r="A40" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="41" ht="13.5" customHeight="1">
-      <c r="A41" s="7"/>
-      <c r="B41" s="1"/>
-    </row>
-    <row r="42" ht="13.5" customHeight="1">
-      <c r="A42" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="4"/>
-    </row>
-    <row r="43" ht="13.5" customHeight="1">
-      <c r="A43" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="44" ht="13.5" customHeight="1">
-      <c r="A44" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="45" ht="13.5" customHeight="1">
-      <c r="A45" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" ht="13.5" customHeight="1">
-      <c r="A46" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="47" ht="13.5" customHeight="1">
-      <c r="A47" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="48" ht="13.5" customHeight="1">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="49" ht="13.5" customHeight="1">
-      <c r="A49" s="8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="4"/>
-    </row>
-    <row r="50" ht="13.5" customHeight="1">
-      <c r="A50" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="51" ht="13.5" customHeight="1">
-      <c r="A51" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="52" ht="13.5" customHeight="1">
-      <c r="A52" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="53" ht="13.5" customHeight="1">
-      <c r="A53" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B53" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="54" ht="13.5" customHeight="1">
-      <c r="A54" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="55" ht="13.5" customHeight="1">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="56" ht="13.5" customHeight="1">
-      <c r="A56" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B56" s="1"/>
-    </row>
-    <row r="57" ht="13.5" customHeight="1">
-      <c r="A57" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B57" s="1"/>
-    </row>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1">
-      <c r="A59" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="60" ht="13.5" customHeight="1">
-      <c r="A60" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="61" ht="13.5" customHeight="1">
-      <c r="A61" s="3"/>
-    </row>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
-    <row r="514" ht="13.5" customHeight="1"/>
-    <row r="515" ht="13.5" customHeight="1"/>
-    <row r="516" ht="13.5" customHeight="1"/>
-    <row r="517" ht="13.5" customHeight="1"/>
-    <row r="518" ht="13.5" customHeight="1"/>
-    <row r="519" ht="13.5" customHeight="1"/>
-    <row r="520" ht="13.5" customHeight="1"/>
-    <row r="521" ht="13.5" customHeight="1"/>
-    <row r="522" ht="13.5" customHeight="1"/>
-    <row r="523" ht="13.5" customHeight="1"/>
-    <row r="524" ht="13.5" customHeight="1"/>
-    <row r="525" ht="13.5" customHeight="1"/>
-    <row r="526" ht="13.5" customHeight="1"/>
-    <row r="527" ht="13.5" customHeight="1"/>
-    <row r="528" ht="13.5" customHeight="1"/>
-    <row r="529" ht="13.5" customHeight="1"/>
-    <row r="530" ht="13.5" customHeight="1"/>
-    <row r="531" ht="13.5" customHeight="1"/>
-    <row r="532" ht="13.5" customHeight="1"/>
-    <row r="533" ht="13.5" customHeight="1"/>
-    <row r="534" ht="13.5" customHeight="1"/>
-    <row r="535" ht="13.5" customHeight="1"/>
-    <row r="536" ht="13.5" customHeight="1"/>
-    <row r="537" ht="13.5" customHeight="1"/>
-    <row r="538" ht="13.5" customHeight="1"/>
-    <row r="539" ht="13.5" customHeight="1"/>
-    <row r="540" ht="13.5" customHeight="1"/>
-    <row r="541" ht="13.5" customHeight="1"/>
-    <row r="542" ht="13.5" customHeight="1"/>
-    <row r="543" ht="13.5" customHeight="1"/>
-    <row r="544" ht="13.5" customHeight="1"/>
-    <row r="545" ht="13.5" customHeight="1"/>
-    <row r="546" ht="13.5" customHeight="1"/>
-    <row r="547" ht="13.5" customHeight="1"/>
-    <row r="548" ht="13.5" customHeight="1"/>
-    <row r="549" ht="13.5" customHeight="1"/>
-    <row r="550" ht="13.5" customHeight="1"/>
-    <row r="551" ht="13.5" customHeight="1"/>
-    <row r="552" ht="13.5" customHeight="1"/>
-    <row r="553" ht="13.5" customHeight="1"/>
-    <row r="554" ht="13.5" customHeight="1"/>
-    <row r="555" ht="13.5" customHeight="1"/>
-    <row r="556" ht="13.5" customHeight="1"/>
-    <row r="557" ht="13.5" customHeight="1"/>
-    <row r="558" ht="13.5" customHeight="1"/>
-    <row r="559" ht="13.5" customHeight="1"/>
-    <row r="560" ht="13.5" customHeight="1"/>
-    <row r="561" ht="13.5" customHeight="1"/>
-    <row r="562" ht="13.5" customHeight="1"/>
-    <row r="563" ht="13.5" customHeight="1"/>
-    <row r="564" ht="13.5" customHeight="1"/>
-    <row r="565" ht="13.5" customHeight="1"/>
-    <row r="566" ht="13.5" customHeight="1"/>
-    <row r="567" ht="13.5" customHeight="1"/>
-    <row r="568" ht="13.5" customHeight="1"/>
-    <row r="569" ht="13.5" customHeight="1"/>
-    <row r="570" ht="13.5" customHeight="1"/>
-    <row r="571" ht="13.5" customHeight="1"/>
-    <row r="572" ht="13.5" customHeight="1"/>
-    <row r="573" ht="13.5" customHeight="1"/>
-    <row r="574" ht="13.5" customHeight="1"/>
-    <row r="575" ht="13.5" customHeight="1"/>
-    <row r="576" ht="13.5" customHeight="1"/>
-    <row r="577" ht="13.5" customHeight="1"/>
-    <row r="578" ht="13.5" customHeight="1"/>
-    <row r="579" ht="13.5" customHeight="1"/>
-    <row r="580" ht="13.5" customHeight="1"/>
-    <row r="581" ht="13.5" customHeight="1"/>
-    <row r="582" ht="13.5" customHeight="1"/>
-    <row r="583" ht="13.5" customHeight="1"/>
-    <row r="584" ht="13.5" customHeight="1"/>
-    <row r="585" ht="13.5" customHeight="1"/>
-    <row r="586" ht="13.5" customHeight="1"/>
-    <row r="587" ht="13.5" customHeight="1"/>
-    <row r="588" ht="13.5" customHeight="1"/>
-    <row r="589" ht="13.5" customHeight="1"/>
-    <row r="590" ht="13.5" customHeight="1"/>
-    <row r="591" ht="13.5" customHeight="1"/>
-    <row r="592" ht="13.5" customHeight="1"/>
-    <row r="593" ht="13.5" customHeight="1"/>
-    <row r="594" ht="13.5" customHeight="1"/>
-    <row r="595" ht="13.5" customHeight="1"/>
-    <row r="596" ht="13.5" customHeight="1"/>
-    <row r="597" ht="13.5" customHeight="1"/>
-    <row r="598" ht="13.5" customHeight="1"/>
-    <row r="599" ht="13.5" customHeight="1"/>
-    <row r="600" ht="13.5" customHeight="1"/>
-    <row r="601" ht="13.5" customHeight="1"/>
-    <row r="602" ht="13.5" customHeight="1"/>
-    <row r="603" ht="13.5" customHeight="1"/>
-    <row r="604" ht="13.5" customHeight="1"/>
-    <row r="605" ht="13.5" customHeight="1"/>
-    <row r="606" ht="13.5" customHeight="1"/>
-    <row r="607" ht="13.5" customHeight="1"/>
-    <row r="608" ht="13.5" customHeight="1"/>
-    <row r="609" ht="13.5" customHeight="1"/>
-    <row r="610" ht="13.5" customHeight="1"/>
-    <row r="611" ht="13.5" customHeight="1"/>
-    <row r="612" ht="13.5" customHeight="1"/>
-    <row r="613" ht="13.5" customHeight="1"/>
-    <row r="614" ht="13.5" customHeight="1"/>
-    <row r="615" ht="13.5" customHeight="1"/>
-    <row r="616" ht="13.5" customHeight="1"/>
-    <row r="617" ht="13.5" customHeight="1"/>
-    <row r="618" ht="13.5" customHeight="1"/>
-    <row r="619" ht="13.5" customHeight="1"/>
-    <row r="620" ht="13.5" customHeight="1"/>
-    <row r="621" ht="13.5" customHeight="1"/>
-    <row r="622" ht="13.5" customHeight="1"/>
-    <row r="623" ht="13.5" customHeight="1"/>
-    <row r="624" ht="13.5" customHeight="1"/>
-    <row r="625" ht="13.5" customHeight="1"/>
-    <row r="626" ht="13.5" customHeight="1"/>
-    <row r="627" ht="13.5" customHeight="1"/>
-    <row r="628" ht="13.5" customHeight="1"/>
-    <row r="629" ht="13.5" customHeight="1"/>
-    <row r="630" ht="13.5" customHeight="1"/>
-    <row r="631" ht="13.5" customHeight="1"/>
-    <row r="632" ht="13.5" customHeight="1"/>
-    <row r="633" ht="13.5" customHeight="1"/>
-    <row r="634" ht="13.5" customHeight="1"/>
-    <row r="635" ht="13.5" customHeight="1"/>
-    <row r="636" ht="13.5" customHeight="1"/>
-    <row r="637" ht="13.5" customHeight="1"/>
-    <row r="638" ht="13.5" customHeight="1"/>
-    <row r="639" ht="13.5" customHeight="1"/>
-    <row r="640" ht="13.5" customHeight="1"/>
-    <row r="641" ht="13.5" customHeight="1"/>
-    <row r="642" ht="13.5" customHeight="1"/>
-    <row r="643" ht="13.5" customHeight="1"/>
-    <row r="644" ht="13.5" customHeight="1"/>
-    <row r="645" ht="13.5" customHeight="1"/>
-    <row r="646" ht="13.5" customHeight="1"/>
-    <row r="647" ht="13.5" customHeight="1"/>
-    <row r="648" ht="13.5" customHeight="1"/>
-    <row r="649" ht="13.5" customHeight="1"/>
-    <row r="650" ht="13.5" customHeight="1"/>
-    <row r="651" ht="13.5" customHeight="1"/>
-    <row r="652" ht="13.5" customHeight="1"/>
-    <row r="653" ht="13.5" customHeight="1"/>
-    <row r="654" ht="13.5" customHeight="1"/>
-    <row r="655" ht="13.5" customHeight="1"/>
-    <row r="656" ht="13.5" customHeight="1"/>
-    <row r="657" ht="13.5" customHeight="1"/>
-    <row r="658" ht="13.5" customHeight="1"/>
-    <row r="659" ht="13.5" customHeight="1"/>
-    <row r="660" ht="13.5" customHeight="1"/>
-    <row r="661" ht="13.5" customHeight="1"/>
-    <row r="662" ht="13.5" customHeight="1"/>
-    <row r="663" ht="13.5" customHeight="1"/>
-    <row r="664" ht="13.5" customHeight="1"/>
-    <row r="665" ht="13.5" customHeight="1"/>
-    <row r="666" ht="13.5" customHeight="1"/>
-    <row r="667" ht="13.5" customHeight="1"/>
-    <row r="668" ht="13.5" customHeight="1"/>
-    <row r="669" ht="13.5" customHeight="1"/>
-    <row r="670" ht="13.5" customHeight="1"/>
-    <row r="671" ht="13.5" customHeight="1"/>
-    <row r="672" ht="13.5" customHeight="1"/>
-    <row r="673" ht="13.5" customHeight="1"/>
-    <row r="674" ht="13.5" customHeight="1"/>
-    <row r="675" ht="13.5" customHeight="1"/>
-    <row r="676" ht="13.5" customHeight="1"/>
-    <row r="677" ht="13.5" customHeight="1"/>
-    <row r="678" ht="13.5" customHeight="1"/>
-    <row r="679" ht="13.5" customHeight="1"/>
-    <row r="680" ht="13.5" customHeight="1"/>
-    <row r="681" ht="13.5" customHeight="1"/>
-    <row r="682" ht="13.5" customHeight="1"/>
-    <row r="683" ht="13.5" customHeight="1"/>
-    <row r="684" ht="13.5" customHeight="1"/>
-    <row r="685" ht="13.5" customHeight="1"/>
-    <row r="686" ht="13.5" customHeight="1"/>
-    <row r="687" ht="13.5" customHeight="1"/>
-    <row r="688" ht="13.5" customHeight="1"/>
-    <row r="689" ht="13.5" customHeight="1"/>
-    <row r="690" ht="13.5" customHeight="1"/>
-    <row r="691" ht="13.5" customHeight="1"/>
-    <row r="692" ht="13.5" customHeight="1"/>
-    <row r="693" ht="13.5" customHeight="1"/>
-    <row r="694" ht="13.5" customHeight="1"/>
-    <row r="695" ht="13.5" customHeight="1"/>
-    <row r="696" ht="13.5" customHeight="1"/>
-    <row r="697" ht="13.5" customHeight="1"/>
-    <row r="698" ht="13.5" customHeight="1"/>
-    <row r="699" ht="13.5" customHeight="1"/>
-    <row r="700" ht="13.5" customHeight="1"/>
-    <row r="701" ht="13.5" customHeight="1"/>
-    <row r="702" ht="13.5" customHeight="1"/>
-    <row r="703" ht="13.5" customHeight="1"/>
-    <row r="704" ht="13.5" customHeight="1"/>
-    <row r="705" ht="13.5" customHeight="1"/>
-    <row r="706" ht="13.5" customHeight="1"/>
-    <row r="707" ht="13.5" customHeight="1"/>
-    <row r="708" ht="13.5" customHeight="1"/>
-    <row r="709" ht="13.5" customHeight="1"/>
-    <row r="710" ht="13.5" customHeight="1"/>
-    <row r="711" ht="13.5" customHeight="1"/>
-    <row r="712" ht="13.5" customHeight="1"/>
-    <row r="713" ht="13.5" customHeight="1"/>
-    <row r="714" ht="13.5" customHeight="1"/>
-    <row r="715" ht="13.5" customHeight="1"/>
-    <row r="716" ht="13.5" customHeight="1"/>
-    <row r="717" ht="13.5" customHeight="1"/>
-    <row r="718" ht="13.5" customHeight="1"/>
-    <row r="719" ht="13.5" customHeight="1"/>
-    <row r="720" ht="13.5" customHeight="1"/>
-    <row r="721" ht="13.5" customHeight="1"/>
-    <row r="722" ht="13.5" customHeight="1"/>
-    <row r="723" ht="13.5" customHeight="1"/>
-    <row r="724" ht="13.5" customHeight="1"/>
-    <row r="725" ht="13.5" customHeight="1"/>
-    <row r="726" ht="13.5" customHeight="1"/>
-    <row r="727" ht="13.5" customHeight="1"/>
-    <row r="728" ht="13.5" customHeight="1"/>
-    <row r="729" ht="13.5" customHeight="1"/>
-    <row r="730" ht="13.5" customHeight="1"/>
-    <row r="731" ht="13.5" customHeight="1"/>
-    <row r="732" ht="13.5" customHeight="1"/>
-    <row r="733" ht="13.5" customHeight="1"/>
-    <row r="734" ht="13.5" customHeight="1"/>
-    <row r="735" ht="13.5" customHeight="1"/>
-    <row r="736" ht="13.5" customHeight="1"/>
-    <row r="737" ht="13.5" customHeight="1"/>
-    <row r="738" ht="13.5" customHeight="1"/>
-    <row r="739" ht="13.5" customHeight="1"/>
-    <row r="740" ht="13.5" customHeight="1"/>
-    <row r="741" ht="13.5" customHeight="1"/>
-    <row r="742" ht="13.5" customHeight="1"/>
-    <row r="743" ht="13.5" customHeight="1"/>
-    <row r="744" ht="13.5" customHeight="1"/>
-    <row r="745" ht="13.5" customHeight="1"/>
-    <row r="746" ht="13.5" customHeight="1"/>
-    <row r="747" ht="13.5" customHeight="1"/>
-    <row r="748" ht="13.5" customHeight="1"/>
-    <row r="749" ht="13.5" customHeight="1"/>
-    <row r="750" ht="13.5" customHeight="1"/>
-    <row r="751" ht="13.5" customHeight="1"/>
-    <row r="752" ht="13.5" customHeight="1"/>
-    <row r="753" ht="13.5" customHeight="1"/>
-    <row r="754" ht="13.5" customHeight="1"/>
-    <row r="755" ht="13.5" customHeight="1"/>
-    <row r="756" ht="13.5" customHeight="1"/>
-    <row r="757" ht="13.5" customHeight="1"/>
-    <row r="758" ht="13.5" customHeight="1"/>
-    <row r="759" ht="13.5" customHeight="1"/>
-    <row r="760" ht="13.5" customHeight="1"/>
-    <row r="761" ht="13.5" customHeight="1"/>
-    <row r="762" ht="13.5" customHeight="1"/>
-    <row r="763" ht="13.5" customHeight="1"/>
-    <row r="764" ht="13.5" customHeight="1"/>
-    <row r="765" ht="13.5" customHeight="1"/>
-    <row r="766" ht="13.5" customHeight="1"/>
-    <row r="767" ht="13.5" customHeight="1"/>
-    <row r="768" ht="13.5" customHeight="1"/>
-    <row r="769" ht="13.5" customHeight="1"/>
-    <row r="770" ht="13.5" customHeight="1"/>
-    <row r="771" ht="13.5" customHeight="1"/>
-    <row r="772" ht="13.5" customHeight="1"/>
-    <row r="773" ht="13.5" customHeight="1"/>
-    <row r="774" ht="13.5" customHeight="1"/>
-    <row r="775" ht="13.5" customHeight="1"/>
-    <row r="776" ht="13.5" customHeight="1"/>
-    <row r="777" ht="13.5" customHeight="1"/>
-    <row r="778" ht="13.5" customHeight="1"/>
-    <row r="779" ht="13.5" customHeight="1"/>
-    <row r="780" ht="13.5" customHeight="1"/>
-    <row r="781" ht="13.5" customHeight="1"/>
-    <row r="782" ht="13.5" customHeight="1"/>
-    <row r="783" ht="13.5" customHeight="1"/>
-    <row r="784" ht="13.5" customHeight="1"/>
-    <row r="785" ht="13.5" customHeight="1"/>
-    <row r="786" ht="13.5" customHeight="1"/>
-    <row r="787" ht="13.5" customHeight="1"/>
-    <row r="788" ht="13.5" customHeight="1"/>
-    <row r="789" ht="13.5" customHeight="1"/>
-    <row r="790" ht="13.5" customHeight="1"/>
-    <row r="791" ht="13.5" customHeight="1"/>
-    <row r="792" ht="13.5" customHeight="1"/>
-    <row r="793" ht="13.5" customHeight="1"/>
-    <row r="794" ht="13.5" customHeight="1"/>
-    <row r="795" ht="13.5" customHeight="1"/>
-    <row r="796" ht="13.5" customHeight="1"/>
-    <row r="797" ht="13.5" customHeight="1"/>
-    <row r="798" ht="13.5" customHeight="1"/>
-    <row r="799" ht="13.5" customHeight="1"/>
-    <row r="800" ht="13.5" customHeight="1"/>
-    <row r="801" ht="13.5" customHeight="1"/>
-    <row r="802" ht="13.5" customHeight="1"/>
-    <row r="803" ht="13.5" customHeight="1"/>
-    <row r="804" ht="13.5" customHeight="1"/>
-    <row r="805" ht="13.5" customHeight="1"/>
-    <row r="806" ht="13.5" customHeight="1"/>
-    <row r="807" ht="13.5" customHeight="1"/>
-    <row r="808" ht="13.5" customHeight="1"/>
-    <row r="809" ht="13.5" customHeight="1"/>
-    <row r="810" ht="13.5" customHeight="1"/>
-    <row r="811" ht="13.5" customHeight="1"/>
-    <row r="812" ht="13.5" customHeight="1"/>
-    <row r="813" ht="13.5" customHeight="1"/>
-    <row r="814" ht="13.5" customHeight="1"/>
-    <row r="815" ht="13.5" customHeight="1"/>
-    <row r="816" ht="13.5" customHeight="1"/>
-    <row r="817" ht="13.5" customHeight="1"/>
-    <row r="818" ht="13.5" customHeight="1"/>
-    <row r="819" ht="13.5" customHeight="1"/>
-    <row r="820" ht="13.5" customHeight="1"/>
-    <row r="821" ht="13.5" customHeight="1"/>
-    <row r="822" ht="13.5" customHeight="1"/>
-    <row r="823" ht="13.5" customHeight="1"/>
-    <row r="824" ht="13.5" customHeight="1"/>
-    <row r="825" ht="13.5" customHeight="1"/>
-    <row r="826" ht="13.5" customHeight="1"/>
-    <row r="827" ht="13.5" customHeight="1"/>
-    <row r="828" ht="13.5" customHeight="1"/>
-    <row r="829" ht="13.5" customHeight="1"/>
-    <row r="830" ht="13.5" customHeight="1"/>
-    <row r="831" ht="13.5" customHeight="1"/>
-    <row r="832" ht="13.5" customHeight="1"/>
-    <row r="833" ht="13.5" customHeight="1"/>
-    <row r="834" ht="13.5" customHeight="1"/>
-    <row r="835" ht="13.5" customHeight="1"/>
-    <row r="836" ht="13.5" customHeight="1"/>
-    <row r="837" ht="13.5" customHeight="1"/>
-    <row r="838" ht="13.5" customHeight="1"/>
-    <row r="839" ht="13.5" customHeight="1"/>
-    <row r="840" ht="13.5" customHeight="1"/>
-    <row r="841" ht="13.5" customHeight="1"/>
-    <row r="842" ht="13.5" customHeight="1"/>
-    <row r="843" ht="13.5" customHeight="1"/>
-    <row r="844" ht="13.5" customHeight="1"/>
-    <row r="845" ht="13.5" customHeight="1"/>
-    <row r="846" ht="13.5" customHeight="1"/>
-    <row r="847" ht="13.5" customHeight="1"/>
-    <row r="848" ht="13.5" customHeight="1"/>
-    <row r="849" ht="13.5" customHeight="1"/>
-    <row r="850" ht="13.5" customHeight="1"/>
-    <row r="851" ht="13.5" customHeight="1"/>
-    <row r="852" ht="13.5" customHeight="1"/>
-    <row r="853" ht="13.5" customHeight="1"/>
-    <row r="854" ht="13.5" customHeight="1"/>
-    <row r="855" ht="13.5" customHeight="1"/>
-    <row r="856" ht="13.5" customHeight="1"/>
-    <row r="857" ht="13.5" customHeight="1"/>
-    <row r="858" ht="13.5" customHeight="1"/>
-    <row r="859" ht="13.5" customHeight="1"/>
-    <row r="860" ht="13.5" customHeight="1"/>
-    <row r="861" ht="13.5" customHeight="1"/>
-    <row r="862" ht="13.5" customHeight="1"/>
-    <row r="863" ht="13.5" customHeight="1"/>
-    <row r="864" ht="13.5" customHeight="1"/>
-    <row r="865" ht="13.5" customHeight="1"/>
-    <row r="866" ht="13.5" customHeight="1"/>
-    <row r="867" ht="13.5" customHeight="1"/>
-    <row r="868" ht="13.5" customHeight="1"/>
-    <row r="869" ht="13.5" customHeight="1"/>
-    <row r="870" ht="13.5" customHeight="1"/>
-    <row r="871" ht="13.5" customHeight="1"/>
-    <row r="872" ht="13.5" customHeight="1"/>
-    <row r="873" ht="13.5" customHeight="1"/>
-    <row r="874" ht="13.5" customHeight="1"/>
-    <row r="875" ht="13.5" customHeight="1"/>
-    <row r="876" ht="13.5" customHeight="1"/>
-    <row r="877" ht="13.5" customHeight="1"/>
-    <row r="878" ht="13.5" customHeight="1"/>
-    <row r="879" ht="13.5" customHeight="1"/>
-    <row r="880" ht="13.5" customHeight="1"/>
-    <row r="881" ht="13.5" customHeight="1"/>
-    <row r="882" ht="13.5" customHeight="1"/>
-    <row r="883" ht="13.5" customHeight="1"/>
-    <row r="884" ht="13.5" customHeight="1"/>
-    <row r="885" ht="13.5" customHeight="1"/>
-    <row r="886" ht="13.5" customHeight="1"/>
-    <row r="887" ht="13.5" customHeight="1"/>
-    <row r="888" ht="13.5" customHeight="1"/>
-    <row r="889" ht="13.5" customHeight="1"/>
-    <row r="890" ht="13.5" customHeight="1"/>
-    <row r="891" ht="13.5" customHeight="1"/>
-    <row r="892" ht="13.5" customHeight="1"/>
-    <row r="893" ht="13.5" customHeight="1"/>
-    <row r="894" ht="13.5" customHeight="1"/>
-    <row r="895" ht="13.5" customHeight="1"/>
-    <row r="896" ht="13.5" customHeight="1"/>
-    <row r="897" ht="13.5" customHeight="1"/>
-    <row r="898" ht="13.5" customHeight="1"/>
-    <row r="899" ht="13.5" customHeight="1"/>
-    <row r="900" ht="13.5" customHeight="1"/>
-    <row r="901" ht="13.5" customHeight="1"/>
-    <row r="902" ht="13.5" customHeight="1"/>
-    <row r="903" ht="13.5" customHeight="1"/>
-    <row r="904" ht="13.5" customHeight="1"/>
-    <row r="905" ht="13.5" customHeight="1"/>
-    <row r="906" ht="13.5" customHeight="1"/>
-    <row r="907" ht="13.5" customHeight="1"/>
-    <row r="908" ht="13.5" customHeight="1"/>
-    <row r="909" ht="13.5" customHeight="1"/>
-    <row r="910" ht="13.5" customHeight="1"/>
-    <row r="911" ht="13.5" customHeight="1"/>
-    <row r="912" ht="13.5" customHeight="1"/>
-    <row r="913" ht="13.5" customHeight="1"/>
-    <row r="914" ht="13.5" customHeight="1"/>
-    <row r="915" ht="13.5" customHeight="1"/>
-    <row r="916" ht="13.5" customHeight="1"/>
-    <row r="917" ht="13.5" customHeight="1"/>
-    <row r="918" ht="13.5" customHeight="1"/>
-    <row r="919" ht="13.5" customHeight="1"/>
-    <row r="920" ht="13.5" customHeight="1"/>
-    <row r="921" ht="13.5" customHeight="1"/>
-    <row r="922" ht="13.5" customHeight="1"/>
-    <row r="923" ht="13.5" customHeight="1"/>
-    <row r="924" ht="13.5" customHeight="1"/>
-    <row r="925" ht="13.5" customHeight="1"/>
-    <row r="926" ht="13.5" customHeight="1"/>
-    <row r="927" ht="13.5" customHeight="1"/>
-    <row r="928" ht="13.5" customHeight="1"/>
-    <row r="929" ht="13.5" customHeight="1"/>
-    <row r="930" ht="13.5" customHeight="1"/>
-    <row r="931" ht="13.5" customHeight="1"/>
-    <row r="932" ht="13.5" customHeight="1"/>
-    <row r="933" ht="13.5" customHeight="1"/>
-    <row r="934" ht="13.5" customHeight="1"/>
-    <row r="935" ht="13.5" customHeight="1"/>
-    <row r="936" ht="13.5" customHeight="1"/>
-    <row r="937" ht="13.5" customHeight="1"/>
-    <row r="938" ht="13.5" customHeight="1"/>
-    <row r="939" ht="13.5" customHeight="1"/>
-    <row r="940" ht="13.5" customHeight="1"/>
-    <row r="941" ht="13.5" customHeight="1"/>
-    <row r="942" ht="13.5" customHeight="1"/>
-    <row r="943" ht="13.5" customHeight="1"/>
-    <row r="944" ht="13.5" customHeight="1"/>
-    <row r="945" ht="13.5" customHeight="1"/>
-    <row r="946" ht="13.5" customHeight="1"/>
-    <row r="947" ht="13.5" customHeight="1"/>
-    <row r="948" ht="13.5" customHeight="1"/>
-    <row r="949" ht="13.5" customHeight="1"/>
-    <row r="950" ht="13.5" customHeight="1"/>
-    <row r="951" ht="13.5" customHeight="1"/>
-    <row r="952" ht="13.5" customHeight="1"/>
-    <row r="953" ht="13.5" customHeight="1"/>
-    <row r="954" ht="13.5" customHeight="1"/>
-    <row r="955" ht="13.5" customHeight="1"/>
-    <row r="956" ht="13.5" customHeight="1"/>
-    <row r="957" ht="13.5" customHeight="1"/>
-    <row r="958" ht="13.5" customHeight="1"/>
-    <row r="959" ht="13.5" customHeight="1"/>
-    <row r="960" ht="13.5" customHeight="1"/>
-    <row r="961" ht="13.5" customHeight="1"/>
-    <row r="962" ht="13.5" customHeight="1"/>
-    <row r="963" ht="13.5" customHeight="1"/>
-    <row r="964" ht="13.5" customHeight="1"/>
-    <row r="965" ht="13.5" customHeight="1"/>
-    <row r="966" ht="13.5" customHeight="1"/>
-    <row r="967" ht="13.5" customHeight="1"/>
-    <row r="968" ht="13.5" customHeight="1"/>
-    <row r="969" ht="13.5" customHeight="1"/>
-    <row r="970" ht="13.5" customHeight="1"/>
-    <row r="971" ht="13.5" customHeight="1"/>
-    <row r="972" ht="13.5" customHeight="1"/>
-    <row r="973" ht="13.5" customHeight="1"/>
-    <row r="974" ht="13.5" customHeight="1"/>
-    <row r="975" ht="13.5" customHeight="1"/>
-    <row r="976" ht="13.5" customHeight="1"/>
-    <row r="977" ht="13.5" customHeight="1"/>
-    <row r="978" ht="13.5" customHeight="1"/>
-    <row r="979" ht="13.5" customHeight="1"/>
-    <row r="980" ht="13.5" customHeight="1"/>
-    <row r="981" ht="13.5" customHeight="1"/>
-    <row r="982" ht="13.5" customHeight="1"/>
-    <row r="983" ht="13.5" customHeight="1"/>
-    <row r="984" ht="13.5" customHeight="1"/>
-    <row r="985" ht="13.5" customHeight="1"/>
-    <row r="986" ht="13.5" customHeight="1"/>
-    <row r="987" ht="13.5" customHeight="1"/>
-    <row r="988" ht="13.5" customHeight="1"/>
-    <row r="989" ht="13.5" customHeight="1"/>
-    <row r="990" ht="13.5" customHeight="1"/>
-    <row r="991" ht="13.5" customHeight="1"/>
-    <row r="992" ht="13.5" customHeight="1"/>
-    <row r="993" ht="13.5" customHeight="1"/>
-    <row r="994" ht="13.5" customHeight="1"/>
-    <row r="995" ht="13.5" customHeight="1"/>
-    <row r="996" ht="13.5" customHeight="1"/>
-    <row r="997" ht="13.5" customHeight="1"/>
-    <row r="998" ht="13.5" customHeight="1"/>
-    <row r="999" ht="13.5" customHeight="1"/>
-    <row r="1000" ht="13.5" customHeight="1"/>
-    <row r="1001" ht="13.5" customHeight="1"/>
-    <row r="1002" ht="13.5" customHeight="1"/>
-    <row r="1003" ht="13.5" customHeight="1"/>
-    <row r="1004" ht="13.5" customHeight="1"/>
-    <row r="1005" ht="13.5" customHeight="1"/>
-    <row r="1006" ht="13.5" customHeight="1"/>
-    <row r="1007" ht="13.5" customHeight="1"/>
-    <row r="1008" ht="13.5" customHeight="1"/>
-    <row r="1009" ht="13.5" customHeight="1"/>
-    <row r="1010" ht="13.5" customHeight="1"/>
-    <row r="1011" ht="13.5" customHeight="1"/>
-    <row r="1012" ht="13.5" customHeight="1"/>
-    <row r="1013" ht="13.5" customHeight="1"/>
-    <row r="1014" ht="13.5" customHeight="1"/>
-    <row r="1015" ht="13.5" customHeight="1"/>
-    <row r="1016" ht="13.5" customHeight="1"/>
-    <row r="1017" ht="13.5" customHeight="1"/>
-    <row r="1018" ht="13.5" customHeight="1"/>
-    <row r="1019" ht="13.5" customHeight="1"/>
-    <row r="1020" ht="13.5" customHeight="1"/>
-    <row r="1021" ht="13.5" customHeight="1"/>
-    <row r="1022" ht="13.5" customHeight="1"/>
-    <row r="1023" ht="13.5" customHeight="1"/>
-    <row r="1024" ht="13.5" customHeight="1"/>
-    <row r="1025" ht="13.5" customHeight="1"/>
-    <row r="1026" ht="13.5" customHeight="1"/>
-    <row r="1027" ht="13.5" customHeight="1"/>
-    <row r="1028" ht="13.5" customHeight="1"/>
-    <row r="1029" ht="13.5" customHeight="1"/>
-    <row r="1030" ht="13.5" customHeight="1"/>
-    <row r="1031" ht="13.5" customHeight="1"/>
-    <row r="1032" ht="13.5" customHeight="1"/>
-    <row r="1033" ht="13.5" customHeight="1"/>
-    <row r="1034" ht="13.5" customHeight="1"/>
-    <row r="1035" ht="13.5" customHeight="1"/>
-    <row r="1036" ht="13.5" customHeight="1"/>
-    <row r="1037" ht="13.5" customHeight="1"/>
-    <row r="1038" ht="13.5" customHeight="1"/>
-    <row r="1039" ht="13.5" customHeight="1"/>
-    <row r="1040" ht="13.5" customHeight="1"/>
-    <row r="1041" ht="13.5" customHeight="1"/>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink r:id="rId1" ref="B1"/>
-  </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
-  <cols>
-    <col customWidth="1" min="1" max="26" width="8.63"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="2" ht="13.5" customHeight="1">
-      <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="4" ht="13.5" customHeight="1">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" ht="13.5" customHeight="1">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-    </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="1"/>
-    </row>
-    <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B18" s="1"/>
-    </row>
-    <row r="19" ht="13.5" customHeight="1"/>
-    <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="3" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="3"/>
-    </row>
-    <row r="23" ht="13.5" customHeight="1"/>
-    <row r="24" ht="13.5" customHeight="1"/>
-    <row r="25" ht="13.5" customHeight="1"/>
-    <row r="26" ht="13.5" customHeight="1"/>
-    <row r="27" ht="13.5" customHeight="1"/>
-    <row r="28" ht="13.5" customHeight="1"/>
-    <row r="29" ht="13.5" customHeight="1"/>
-    <row r="30" ht="13.5" customHeight="1"/>
-    <row r="31" ht="13.5" customHeight="1"/>
-    <row r="32" ht="13.5" customHeight="1"/>
+        <v>16</v>
+      </c>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" ht="13.5" customHeight="1"/>
+    <row r="28" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A28" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" ht="13.5" customHeight="1"/>
+    <row r="32" spans="1:2" ht="13.5" customHeight="1"/>
     <row r="33" ht="13.5" customHeight="1"/>
     <row r="34" ht="13.5" customHeight="1"/>
     <row r="35" ht="13.5" customHeight="1"/>
@@ -7347,222 +5887,1364 @@
     <row r="1000" ht="13.5" customHeight="1"/>
     <row r="1001" ht="13.5" customHeight="1"/>
     <row r="1002" ht="13.5" customHeight="1"/>
+    <row r="1003" ht="13.5" customHeight="1"/>
+    <row r="1004" ht="13.5" customHeight="1"/>
+    <row r="1005" ht="13.5" customHeight="1"/>
+    <row r="1006" ht="13.5" customHeight="1"/>
+    <row r="1007" ht="13.5" customHeight="1"/>
+    <row r="1008" ht="13.5" customHeight="1"/>
+    <row r="1009" ht="13.5" customHeight="1"/>
+    <row r="1010" ht="13.5" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:B1001"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:XFD8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="26" width="8.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A7" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A13" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A15" s="6"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A16" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" ht="13.5" customHeight="1"/>
+    <row r="19" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A19" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A20" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" ht="13.5" customHeight="1"/>
+    <row r="23" spans="1:2" ht="13.5" customHeight="1"/>
+    <row r="24" spans="1:2" ht="13.5" customHeight="1"/>
+    <row r="25" spans="1:2" ht="13.5" customHeight="1"/>
+    <row r="26" spans="1:2" ht="13.5" customHeight="1"/>
+    <row r="27" spans="1:2" ht="13.5" customHeight="1"/>
+    <row r="28" spans="1:2" ht="13.5" customHeight="1"/>
+    <row r="29" spans="1:2" ht="13.5" customHeight="1"/>
+    <row r="30" spans="1:2" ht="13.5" customHeight="1"/>
+    <row r="31" spans="1:2" ht="13.5" customHeight="1"/>
+    <row r="32" spans="1:2" ht="13.5" customHeight="1"/>
+    <row r="33" ht="13.5" customHeight="1"/>
+    <row r="34" ht="13.5" customHeight="1"/>
+    <row r="35" ht="13.5" customHeight="1"/>
+    <row r="36" ht="13.5" customHeight="1"/>
+    <row r="37" ht="13.5" customHeight="1"/>
+    <row r="38" ht="13.5" customHeight="1"/>
+    <row r="39" ht="13.5" customHeight="1"/>
+    <row r="40" ht="13.5" customHeight="1"/>
+    <row r="41" ht="13.5" customHeight="1"/>
+    <row r="42" ht="13.5" customHeight="1"/>
+    <row r="43" ht="13.5" customHeight="1"/>
+    <row r="44" ht="13.5" customHeight="1"/>
+    <row r="45" ht="13.5" customHeight="1"/>
+    <row r="46" ht="13.5" customHeight="1"/>
+    <row r="47" ht="13.5" customHeight="1"/>
+    <row r="48" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
+    <row r="102" ht="13.5" customHeight="1"/>
+    <row r="103" ht="13.5" customHeight="1"/>
+    <row r="104" ht="13.5" customHeight="1"/>
+    <row r="105" ht="13.5" customHeight="1"/>
+    <row r="106" ht="13.5" customHeight="1"/>
+    <row r="107" ht="13.5" customHeight="1"/>
+    <row r="108" ht="13.5" customHeight="1"/>
+    <row r="109" ht="13.5" customHeight="1"/>
+    <row r="110" ht="13.5" customHeight="1"/>
+    <row r="111" ht="13.5" customHeight="1"/>
+    <row r="112" ht="13.5" customHeight="1"/>
+    <row r="113" ht="13.5" customHeight="1"/>
+    <row r="114" ht="13.5" customHeight="1"/>
+    <row r="115" ht="13.5" customHeight="1"/>
+    <row r="116" ht="13.5" customHeight="1"/>
+    <row r="117" ht="13.5" customHeight="1"/>
+    <row r="118" ht="13.5" customHeight="1"/>
+    <row r="119" ht="13.5" customHeight="1"/>
+    <row r="120" ht="13.5" customHeight="1"/>
+    <row r="121" ht="13.5" customHeight="1"/>
+    <row r="122" ht="13.5" customHeight="1"/>
+    <row r="123" ht="13.5" customHeight="1"/>
+    <row r="124" ht="13.5" customHeight="1"/>
+    <row r="125" ht="13.5" customHeight="1"/>
+    <row r="126" ht="13.5" customHeight="1"/>
+    <row r="127" ht="13.5" customHeight="1"/>
+    <row r="128" ht="13.5" customHeight="1"/>
+    <row r="129" ht="13.5" customHeight="1"/>
+    <row r="130" ht="13.5" customHeight="1"/>
+    <row r="131" ht="13.5" customHeight="1"/>
+    <row r="132" ht="13.5" customHeight="1"/>
+    <row r="133" ht="13.5" customHeight="1"/>
+    <row r="134" ht="13.5" customHeight="1"/>
+    <row r="135" ht="13.5" customHeight="1"/>
+    <row r="136" ht="13.5" customHeight="1"/>
+    <row r="137" ht="13.5" customHeight="1"/>
+    <row r="138" ht="13.5" customHeight="1"/>
+    <row r="139" ht="13.5" customHeight="1"/>
+    <row r="140" ht="13.5" customHeight="1"/>
+    <row r="141" ht="13.5" customHeight="1"/>
+    <row r="142" ht="13.5" customHeight="1"/>
+    <row r="143" ht="13.5" customHeight="1"/>
+    <row r="144" ht="13.5" customHeight="1"/>
+    <row r="145" ht="13.5" customHeight="1"/>
+    <row r="146" ht="13.5" customHeight="1"/>
+    <row r="147" ht="13.5" customHeight="1"/>
+    <row r="148" ht="13.5" customHeight="1"/>
+    <row r="149" ht="13.5" customHeight="1"/>
+    <row r="150" ht="13.5" customHeight="1"/>
+    <row r="151" ht="13.5" customHeight="1"/>
+    <row r="152" ht="13.5" customHeight="1"/>
+    <row r="153" ht="13.5" customHeight="1"/>
+    <row r="154" ht="13.5" customHeight="1"/>
+    <row r="155" ht="13.5" customHeight="1"/>
+    <row r="156" ht="13.5" customHeight="1"/>
+    <row r="157" ht="13.5" customHeight="1"/>
+    <row r="158" ht="13.5" customHeight="1"/>
+    <row r="159" ht="13.5" customHeight="1"/>
+    <row r="160" ht="13.5" customHeight="1"/>
+    <row r="161" ht="13.5" customHeight="1"/>
+    <row r="162" ht="13.5" customHeight="1"/>
+    <row r="163" ht="13.5" customHeight="1"/>
+    <row r="164" ht="13.5" customHeight="1"/>
+    <row r="165" ht="13.5" customHeight="1"/>
+    <row r="166" ht="13.5" customHeight="1"/>
+    <row r="167" ht="13.5" customHeight="1"/>
+    <row r="168" ht="13.5" customHeight="1"/>
+    <row r="169" ht="13.5" customHeight="1"/>
+    <row r="170" ht="13.5" customHeight="1"/>
+    <row r="171" ht="13.5" customHeight="1"/>
+    <row r="172" ht="13.5" customHeight="1"/>
+    <row r="173" ht="13.5" customHeight="1"/>
+    <row r="174" ht="13.5" customHeight="1"/>
+    <row r="175" ht="13.5" customHeight="1"/>
+    <row r="176" ht="13.5" customHeight="1"/>
+    <row r="177" ht="13.5" customHeight="1"/>
+    <row r="178" ht="13.5" customHeight="1"/>
+    <row r="179" ht="13.5" customHeight="1"/>
+    <row r="180" ht="13.5" customHeight="1"/>
+    <row r="181" ht="13.5" customHeight="1"/>
+    <row r="182" ht="13.5" customHeight="1"/>
+    <row r="183" ht="13.5" customHeight="1"/>
+    <row r="184" ht="13.5" customHeight="1"/>
+    <row r="185" ht="13.5" customHeight="1"/>
+    <row r="186" ht="13.5" customHeight="1"/>
+    <row r="187" ht="13.5" customHeight="1"/>
+    <row r="188" ht="13.5" customHeight="1"/>
+    <row r="189" ht="13.5" customHeight="1"/>
+    <row r="190" ht="13.5" customHeight="1"/>
+    <row r="191" ht="13.5" customHeight="1"/>
+    <row r="192" ht="13.5" customHeight="1"/>
+    <row r="193" ht="13.5" customHeight="1"/>
+    <row r="194" ht="13.5" customHeight="1"/>
+    <row r="195" ht="13.5" customHeight="1"/>
+    <row r="196" ht="13.5" customHeight="1"/>
+    <row r="197" ht="13.5" customHeight="1"/>
+    <row r="198" ht="13.5" customHeight="1"/>
+    <row r="199" ht="13.5" customHeight="1"/>
+    <row r="200" ht="13.5" customHeight="1"/>
+    <row r="201" ht="13.5" customHeight="1"/>
+    <row r="202" ht="13.5" customHeight="1"/>
+    <row r="203" ht="13.5" customHeight="1"/>
+    <row r="204" ht="13.5" customHeight="1"/>
+    <row r="205" ht="13.5" customHeight="1"/>
+    <row r="206" ht="13.5" customHeight="1"/>
+    <row r="207" ht="13.5" customHeight="1"/>
+    <row r="208" ht="13.5" customHeight="1"/>
+    <row r="209" ht="13.5" customHeight="1"/>
+    <row r="210" ht="13.5" customHeight="1"/>
+    <row r="211" ht="13.5" customHeight="1"/>
+    <row r="212" ht="13.5" customHeight="1"/>
+    <row r="213" ht="13.5" customHeight="1"/>
+    <row r="214" ht="13.5" customHeight="1"/>
+    <row r="215" ht="13.5" customHeight="1"/>
+    <row r="216" ht="13.5" customHeight="1"/>
+    <row r="217" ht="13.5" customHeight="1"/>
+    <row r="218" ht="13.5" customHeight="1"/>
+    <row r="219" ht="13.5" customHeight="1"/>
+    <row r="220" ht="13.5" customHeight="1"/>
+    <row r="221" ht="13.5" customHeight="1"/>
+    <row r="222" ht="13.5" customHeight="1"/>
+    <row r="223" ht="13.5" customHeight="1"/>
+    <row r="224" ht="13.5" customHeight="1"/>
+    <row r="225" ht="13.5" customHeight="1"/>
+    <row r="226" ht="13.5" customHeight="1"/>
+    <row r="227" ht="13.5" customHeight="1"/>
+    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="229" ht="13.5" customHeight="1"/>
+    <row r="230" ht="13.5" customHeight="1"/>
+    <row r="231" ht="13.5" customHeight="1"/>
+    <row r="232" ht="13.5" customHeight="1"/>
+    <row r="233" ht="13.5" customHeight="1"/>
+    <row r="234" ht="13.5" customHeight="1"/>
+    <row r="235" ht="13.5" customHeight="1"/>
+    <row r="236" ht="13.5" customHeight="1"/>
+    <row r="237" ht="13.5" customHeight="1"/>
+    <row r="238" ht="13.5" customHeight="1"/>
+    <row r="239" ht="13.5" customHeight="1"/>
+    <row r="240" ht="13.5" customHeight="1"/>
+    <row r="241" ht="13.5" customHeight="1"/>
+    <row r="242" ht="13.5" customHeight="1"/>
+    <row r="243" ht="13.5" customHeight="1"/>
+    <row r="244" ht="13.5" customHeight="1"/>
+    <row r="245" ht="13.5" customHeight="1"/>
+    <row r="246" ht="13.5" customHeight="1"/>
+    <row r="247" ht="13.5" customHeight="1"/>
+    <row r="248" ht="13.5" customHeight="1"/>
+    <row r="249" ht="13.5" customHeight="1"/>
+    <row r="250" ht="13.5" customHeight="1"/>
+    <row r="251" ht="13.5" customHeight="1"/>
+    <row r="252" ht="13.5" customHeight="1"/>
+    <row r="253" ht="13.5" customHeight="1"/>
+    <row r="254" ht="13.5" customHeight="1"/>
+    <row r="255" ht="13.5" customHeight="1"/>
+    <row r="256" ht="13.5" customHeight="1"/>
+    <row r="257" ht="13.5" customHeight="1"/>
+    <row r="258" ht="13.5" customHeight="1"/>
+    <row r="259" ht="13.5" customHeight="1"/>
+    <row r="260" ht="13.5" customHeight="1"/>
+    <row r="261" ht="13.5" customHeight="1"/>
+    <row r="262" ht="13.5" customHeight="1"/>
+    <row r="263" ht="13.5" customHeight="1"/>
+    <row r="264" ht="13.5" customHeight="1"/>
+    <row r="265" ht="13.5" customHeight="1"/>
+    <row r="266" ht="13.5" customHeight="1"/>
+    <row r="267" ht="13.5" customHeight="1"/>
+    <row r="268" ht="13.5" customHeight="1"/>
+    <row r="269" ht="13.5" customHeight="1"/>
+    <row r="270" ht="13.5" customHeight="1"/>
+    <row r="271" ht="13.5" customHeight="1"/>
+    <row r="272" ht="13.5" customHeight="1"/>
+    <row r="273" ht="13.5" customHeight="1"/>
+    <row r="274" ht="13.5" customHeight="1"/>
+    <row r="275" ht="13.5" customHeight="1"/>
+    <row r="276" ht="13.5" customHeight="1"/>
+    <row r="277" ht="13.5" customHeight="1"/>
+    <row r="278" ht="13.5" customHeight="1"/>
+    <row r="279" ht="13.5" customHeight="1"/>
+    <row r="280" ht="13.5" customHeight="1"/>
+    <row r="281" ht="13.5" customHeight="1"/>
+    <row r="282" ht="13.5" customHeight="1"/>
+    <row r="283" ht="13.5" customHeight="1"/>
+    <row r="284" ht="13.5" customHeight="1"/>
+    <row r="285" ht="13.5" customHeight="1"/>
+    <row r="286" ht="13.5" customHeight="1"/>
+    <row r="287" ht="13.5" customHeight="1"/>
+    <row r="288" ht="13.5" customHeight="1"/>
+    <row r="289" ht="13.5" customHeight="1"/>
+    <row r="290" ht="13.5" customHeight="1"/>
+    <row r="291" ht="13.5" customHeight="1"/>
+    <row r="292" ht="13.5" customHeight="1"/>
+    <row r="293" ht="13.5" customHeight="1"/>
+    <row r="294" ht="13.5" customHeight="1"/>
+    <row r="295" ht="13.5" customHeight="1"/>
+    <row r="296" ht="13.5" customHeight="1"/>
+    <row r="297" ht="13.5" customHeight="1"/>
+    <row r="298" ht="13.5" customHeight="1"/>
+    <row r="299" ht="13.5" customHeight="1"/>
+    <row r="300" ht="13.5" customHeight="1"/>
+    <row r="301" ht="13.5" customHeight="1"/>
+    <row r="302" ht="13.5" customHeight="1"/>
+    <row r="303" ht="13.5" customHeight="1"/>
+    <row r="304" ht="13.5" customHeight="1"/>
+    <row r="305" ht="13.5" customHeight="1"/>
+    <row r="306" ht="13.5" customHeight="1"/>
+    <row r="307" ht="13.5" customHeight="1"/>
+    <row r="308" ht="13.5" customHeight="1"/>
+    <row r="309" ht="13.5" customHeight="1"/>
+    <row r="310" ht="13.5" customHeight="1"/>
+    <row r="311" ht="13.5" customHeight="1"/>
+    <row r="312" ht="13.5" customHeight="1"/>
+    <row r="313" ht="13.5" customHeight="1"/>
+    <row r="314" ht="13.5" customHeight="1"/>
+    <row r="315" ht="13.5" customHeight="1"/>
+    <row r="316" ht="13.5" customHeight="1"/>
+    <row r="317" ht="13.5" customHeight="1"/>
+    <row r="318" ht="13.5" customHeight="1"/>
+    <row r="319" ht="13.5" customHeight="1"/>
+    <row r="320" ht="13.5" customHeight="1"/>
+    <row r="321" ht="13.5" customHeight="1"/>
+    <row r="322" ht="13.5" customHeight="1"/>
+    <row r="323" ht="13.5" customHeight="1"/>
+    <row r="324" ht="13.5" customHeight="1"/>
+    <row r="325" ht="13.5" customHeight="1"/>
+    <row r="326" ht="13.5" customHeight="1"/>
+    <row r="327" ht="13.5" customHeight="1"/>
+    <row r="328" ht="13.5" customHeight="1"/>
+    <row r="329" ht="13.5" customHeight="1"/>
+    <row r="330" ht="13.5" customHeight="1"/>
+    <row r="331" ht="13.5" customHeight="1"/>
+    <row r="332" ht="13.5" customHeight="1"/>
+    <row r="333" ht="13.5" customHeight="1"/>
+    <row r="334" ht="13.5" customHeight="1"/>
+    <row r="335" ht="13.5" customHeight="1"/>
+    <row r="336" ht="13.5" customHeight="1"/>
+    <row r="337" ht="13.5" customHeight="1"/>
+    <row r="338" ht="13.5" customHeight="1"/>
+    <row r="339" ht="13.5" customHeight="1"/>
+    <row r="340" ht="13.5" customHeight="1"/>
+    <row r="341" ht="13.5" customHeight="1"/>
+    <row r="342" ht="13.5" customHeight="1"/>
+    <row r="343" ht="13.5" customHeight="1"/>
+    <row r="344" ht="13.5" customHeight="1"/>
+    <row r="345" ht="13.5" customHeight="1"/>
+    <row r="346" ht="13.5" customHeight="1"/>
+    <row r="347" ht="13.5" customHeight="1"/>
+    <row r="348" ht="13.5" customHeight="1"/>
+    <row r="349" ht="13.5" customHeight="1"/>
+    <row r="350" ht="13.5" customHeight="1"/>
+    <row r="351" ht="13.5" customHeight="1"/>
+    <row r="352" ht="13.5" customHeight="1"/>
+    <row r="353" ht="13.5" customHeight="1"/>
+    <row r="354" ht="13.5" customHeight="1"/>
+    <row r="355" ht="13.5" customHeight="1"/>
+    <row r="356" ht="13.5" customHeight="1"/>
+    <row r="357" ht="13.5" customHeight="1"/>
+    <row r="358" ht="13.5" customHeight="1"/>
+    <row r="359" ht="13.5" customHeight="1"/>
+    <row r="360" ht="13.5" customHeight="1"/>
+    <row r="361" ht="13.5" customHeight="1"/>
+    <row r="362" ht="13.5" customHeight="1"/>
+    <row r="363" ht="13.5" customHeight="1"/>
+    <row r="364" ht="13.5" customHeight="1"/>
+    <row r="365" ht="13.5" customHeight="1"/>
+    <row r="366" ht="13.5" customHeight="1"/>
+    <row r="367" ht="13.5" customHeight="1"/>
+    <row r="368" ht="13.5" customHeight="1"/>
+    <row r="369" ht="13.5" customHeight="1"/>
+    <row r="370" ht="13.5" customHeight="1"/>
+    <row r="371" ht="13.5" customHeight="1"/>
+    <row r="372" ht="13.5" customHeight="1"/>
+    <row r="373" ht="13.5" customHeight="1"/>
+    <row r="374" ht="13.5" customHeight="1"/>
+    <row r="375" ht="13.5" customHeight="1"/>
+    <row r="376" ht="13.5" customHeight="1"/>
+    <row r="377" ht="13.5" customHeight="1"/>
+    <row r="378" ht="13.5" customHeight="1"/>
+    <row r="379" ht="13.5" customHeight="1"/>
+    <row r="380" ht="13.5" customHeight="1"/>
+    <row r="381" ht="13.5" customHeight="1"/>
+    <row r="382" ht="13.5" customHeight="1"/>
+    <row r="383" ht="13.5" customHeight="1"/>
+    <row r="384" ht="13.5" customHeight="1"/>
+    <row r="385" ht="13.5" customHeight="1"/>
+    <row r="386" ht="13.5" customHeight="1"/>
+    <row r="387" ht="13.5" customHeight="1"/>
+    <row r="388" ht="13.5" customHeight="1"/>
+    <row r="389" ht="13.5" customHeight="1"/>
+    <row r="390" ht="13.5" customHeight="1"/>
+    <row r="391" ht="13.5" customHeight="1"/>
+    <row r="392" ht="13.5" customHeight="1"/>
+    <row r="393" ht="13.5" customHeight="1"/>
+    <row r="394" ht="13.5" customHeight="1"/>
+    <row r="395" ht="13.5" customHeight="1"/>
+    <row r="396" ht="13.5" customHeight="1"/>
+    <row r="397" ht="13.5" customHeight="1"/>
+    <row r="398" ht="13.5" customHeight="1"/>
+    <row r="399" ht="13.5" customHeight="1"/>
+    <row r="400" ht="13.5" customHeight="1"/>
+    <row r="401" ht="13.5" customHeight="1"/>
+    <row r="402" ht="13.5" customHeight="1"/>
+    <row r="403" ht="13.5" customHeight="1"/>
+    <row r="404" ht="13.5" customHeight="1"/>
+    <row r="405" ht="13.5" customHeight="1"/>
+    <row r="406" ht="13.5" customHeight="1"/>
+    <row r="407" ht="13.5" customHeight="1"/>
+    <row r="408" ht="13.5" customHeight="1"/>
+    <row r="409" ht="13.5" customHeight="1"/>
+    <row r="410" ht="13.5" customHeight="1"/>
+    <row r="411" ht="13.5" customHeight="1"/>
+    <row r="412" ht="13.5" customHeight="1"/>
+    <row r="413" ht="13.5" customHeight="1"/>
+    <row r="414" ht="13.5" customHeight="1"/>
+    <row r="415" ht="13.5" customHeight="1"/>
+    <row r="416" ht="13.5" customHeight="1"/>
+    <row r="417" ht="13.5" customHeight="1"/>
+    <row r="418" ht="13.5" customHeight="1"/>
+    <row r="419" ht="13.5" customHeight="1"/>
+    <row r="420" ht="13.5" customHeight="1"/>
+    <row r="421" ht="13.5" customHeight="1"/>
+    <row r="422" ht="13.5" customHeight="1"/>
+    <row r="423" ht="13.5" customHeight="1"/>
+    <row r="424" ht="13.5" customHeight="1"/>
+    <row r="425" ht="13.5" customHeight="1"/>
+    <row r="426" ht="13.5" customHeight="1"/>
+    <row r="427" ht="13.5" customHeight="1"/>
+    <row r="428" ht="13.5" customHeight="1"/>
+    <row r="429" ht="13.5" customHeight="1"/>
+    <row r="430" ht="13.5" customHeight="1"/>
+    <row r="431" ht="13.5" customHeight="1"/>
+    <row r="432" ht="13.5" customHeight="1"/>
+    <row r="433" ht="13.5" customHeight="1"/>
+    <row r="434" ht="13.5" customHeight="1"/>
+    <row r="435" ht="13.5" customHeight="1"/>
+    <row r="436" ht="13.5" customHeight="1"/>
+    <row r="437" ht="13.5" customHeight="1"/>
+    <row r="438" ht="13.5" customHeight="1"/>
+    <row r="439" ht="13.5" customHeight="1"/>
+    <row r="440" ht="13.5" customHeight="1"/>
+    <row r="441" ht="13.5" customHeight="1"/>
+    <row r="442" ht="13.5" customHeight="1"/>
+    <row r="443" ht="13.5" customHeight="1"/>
+    <row r="444" ht="13.5" customHeight="1"/>
+    <row r="445" ht="13.5" customHeight="1"/>
+    <row r="446" ht="13.5" customHeight="1"/>
+    <row r="447" ht="13.5" customHeight="1"/>
+    <row r="448" ht="13.5" customHeight="1"/>
+    <row r="449" ht="13.5" customHeight="1"/>
+    <row r="450" ht="13.5" customHeight="1"/>
+    <row r="451" ht="13.5" customHeight="1"/>
+    <row r="452" ht="13.5" customHeight="1"/>
+    <row r="453" ht="13.5" customHeight="1"/>
+    <row r="454" ht="13.5" customHeight="1"/>
+    <row r="455" ht="13.5" customHeight="1"/>
+    <row r="456" ht="13.5" customHeight="1"/>
+    <row r="457" ht="13.5" customHeight="1"/>
+    <row r="458" ht="13.5" customHeight="1"/>
+    <row r="459" ht="13.5" customHeight="1"/>
+    <row r="460" ht="13.5" customHeight="1"/>
+    <row r="461" ht="13.5" customHeight="1"/>
+    <row r="462" ht="13.5" customHeight="1"/>
+    <row r="463" ht="13.5" customHeight="1"/>
+    <row r="464" ht="13.5" customHeight="1"/>
+    <row r="465" ht="13.5" customHeight="1"/>
+    <row r="466" ht="13.5" customHeight="1"/>
+    <row r="467" ht="13.5" customHeight="1"/>
+    <row r="468" ht="13.5" customHeight="1"/>
+    <row r="469" ht="13.5" customHeight="1"/>
+    <row r="470" ht="13.5" customHeight="1"/>
+    <row r="471" ht="13.5" customHeight="1"/>
+    <row r="472" ht="13.5" customHeight="1"/>
+    <row r="473" ht="13.5" customHeight="1"/>
+    <row r="474" ht="13.5" customHeight="1"/>
+    <row r="475" ht="13.5" customHeight="1"/>
+    <row r="476" ht="13.5" customHeight="1"/>
+    <row r="477" ht="13.5" customHeight="1"/>
+    <row r="478" ht="13.5" customHeight="1"/>
+    <row r="479" ht="13.5" customHeight="1"/>
+    <row r="480" ht="13.5" customHeight="1"/>
+    <row r="481" ht="13.5" customHeight="1"/>
+    <row r="482" ht="13.5" customHeight="1"/>
+    <row r="483" ht="13.5" customHeight="1"/>
+    <row r="484" ht="13.5" customHeight="1"/>
+    <row r="485" ht="13.5" customHeight="1"/>
+    <row r="486" ht="13.5" customHeight="1"/>
+    <row r="487" ht="13.5" customHeight="1"/>
+    <row r="488" ht="13.5" customHeight="1"/>
+    <row r="489" ht="13.5" customHeight="1"/>
+    <row r="490" ht="13.5" customHeight="1"/>
+    <row r="491" ht="13.5" customHeight="1"/>
+    <row r="492" ht="13.5" customHeight="1"/>
+    <row r="493" ht="13.5" customHeight="1"/>
+    <row r="494" ht="13.5" customHeight="1"/>
+    <row r="495" ht="13.5" customHeight="1"/>
+    <row r="496" ht="13.5" customHeight="1"/>
+    <row r="497" ht="13.5" customHeight="1"/>
+    <row r="498" ht="13.5" customHeight="1"/>
+    <row r="499" ht="13.5" customHeight="1"/>
+    <row r="500" ht="13.5" customHeight="1"/>
+    <row r="501" ht="13.5" customHeight="1"/>
+    <row r="502" ht="13.5" customHeight="1"/>
+    <row r="503" ht="13.5" customHeight="1"/>
+    <row r="504" ht="13.5" customHeight="1"/>
+    <row r="505" ht="13.5" customHeight="1"/>
+    <row r="506" ht="13.5" customHeight="1"/>
+    <row r="507" ht="13.5" customHeight="1"/>
+    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="509" ht="13.5" customHeight="1"/>
+    <row r="510" ht="13.5" customHeight="1"/>
+    <row r="511" ht="13.5" customHeight="1"/>
+    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="514" ht="13.5" customHeight="1"/>
+    <row r="515" ht="13.5" customHeight="1"/>
+    <row r="516" ht="13.5" customHeight="1"/>
+    <row r="517" ht="13.5" customHeight="1"/>
+    <row r="518" ht="13.5" customHeight="1"/>
+    <row r="519" ht="13.5" customHeight="1"/>
+    <row r="520" ht="13.5" customHeight="1"/>
+    <row r="521" ht="13.5" customHeight="1"/>
+    <row r="522" ht="13.5" customHeight="1"/>
+    <row r="523" ht="13.5" customHeight="1"/>
+    <row r="524" ht="13.5" customHeight="1"/>
+    <row r="525" ht="13.5" customHeight="1"/>
+    <row r="526" ht="13.5" customHeight="1"/>
+    <row r="527" ht="13.5" customHeight="1"/>
+    <row r="528" ht="13.5" customHeight="1"/>
+    <row r="529" ht="13.5" customHeight="1"/>
+    <row r="530" ht="13.5" customHeight="1"/>
+    <row r="531" ht="13.5" customHeight="1"/>
+    <row r="532" ht="13.5" customHeight="1"/>
+    <row r="533" ht="13.5" customHeight="1"/>
+    <row r="534" ht="13.5" customHeight="1"/>
+    <row r="535" ht="13.5" customHeight="1"/>
+    <row r="536" ht="13.5" customHeight="1"/>
+    <row r="537" ht="13.5" customHeight="1"/>
+    <row r="538" ht="13.5" customHeight="1"/>
+    <row r="539" ht="13.5" customHeight="1"/>
+    <row r="540" ht="13.5" customHeight="1"/>
+    <row r="541" ht="13.5" customHeight="1"/>
+    <row r="542" ht="13.5" customHeight="1"/>
+    <row r="543" ht="13.5" customHeight="1"/>
+    <row r="544" ht="13.5" customHeight="1"/>
+    <row r="545" ht="13.5" customHeight="1"/>
+    <row r="546" ht="13.5" customHeight="1"/>
+    <row r="547" ht="13.5" customHeight="1"/>
+    <row r="548" ht="13.5" customHeight="1"/>
+    <row r="549" ht="13.5" customHeight="1"/>
+    <row r="550" ht="13.5" customHeight="1"/>
+    <row r="551" ht="13.5" customHeight="1"/>
+    <row r="552" ht="13.5" customHeight="1"/>
+    <row r="553" ht="13.5" customHeight="1"/>
+    <row r="554" ht="13.5" customHeight="1"/>
+    <row r="555" ht="13.5" customHeight="1"/>
+    <row r="556" ht="13.5" customHeight="1"/>
+    <row r="557" ht="13.5" customHeight="1"/>
+    <row r="558" ht="13.5" customHeight="1"/>
+    <row r="559" ht="13.5" customHeight="1"/>
+    <row r="560" ht="13.5" customHeight="1"/>
+    <row r="561" ht="13.5" customHeight="1"/>
+    <row r="562" ht="13.5" customHeight="1"/>
+    <row r="563" ht="13.5" customHeight="1"/>
+    <row r="564" ht="13.5" customHeight="1"/>
+    <row r="565" ht="13.5" customHeight="1"/>
+    <row r="566" ht="13.5" customHeight="1"/>
+    <row r="567" ht="13.5" customHeight="1"/>
+    <row r="568" ht="13.5" customHeight="1"/>
+    <row r="569" ht="13.5" customHeight="1"/>
+    <row r="570" ht="13.5" customHeight="1"/>
+    <row r="571" ht="13.5" customHeight="1"/>
+    <row r="572" ht="13.5" customHeight="1"/>
+    <row r="573" ht="13.5" customHeight="1"/>
+    <row r="574" ht="13.5" customHeight="1"/>
+    <row r="575" ht="13.5" customHeight="1"/>
+    <row r="576" ht="13.5" customHeight="1"/>
+    <row r="577" ht="13.5" customHeight="1"/>
+    <row r="578" ht="13.5" customHeight="1"/>
+    <row r="579" ht="13.5" customHeight="1"/>
+    <row r="580" ht="13.5" customHeight="1"/>
+    <row r="581" ht="13.5" customHeight="1"/>
+    <row r="582" ht="13.5" customHeight="1"/>
+    <row r="583" ht="13.5" customHeight="1"/>
+    <row r="584" ht="13.5" customHeight="1"/>
+    <row r="585" ht="13.5" customHeight="1"/>
+    <row r="586" ht="13.5" customHeight="1"/>
+    <row r="587" ht="13.5" customHeight="1"/>
+    <row r="588" ht="13.5" customHeight="1"/>
+    <row r="589" ht="13.5" customHeight="1"/>
+    <row r="590" ht="13.5" customHeight="1"/>
+    <row r="591" ht="13.5" customHeight="1"/>
+    <row r="592" ht="13.5" customHeight="1"/>
+    <row r="593" ht="13.5" customHeight="1"/>
+    <row r="594" ht="13.5" customHeight="1"/>
+    <row r="595" ht="13.5" customHeight="1"/>
+    <row r="596" ht="13.5" customHeight="1"/>
+    <row r="597" ht="13.5" customHeight="1"/>
+    <row r="598" ht="13.5" customHeight="1"/>
+    <row r="599" ht="13.5" customHeight="1"/>
+    <row r="600" ht="13.5" customHeight="1"/>
+    <row r="601" ht="13.5" customHeight="1"/>
+    <row r="602" ht="13.5" customHeight="1"/>
+    <row r="603" ht="13.5" customHeight="1"/>
+    <row r="604" ht="13.5" customHeight="1"/>
+    <row r="605" ht="13.5" customHeight="1"/>
+    <row r="606" ht="13.5" customHeight="1"/>
+    <row r="607" ht="13.5" customHeight="1"/>
+    <row r="608" ht="13.5" customHeight="1"/>
+    <row r="609" ht="13.5" customHeight="1"/>
+    <row r="610" ht="13.5" customHeight="1"/>
+    <row r="611" ht="13.5" customHeight="1"/>
+    <row r="612" ht="13.5" customHeight="1"/>
+    <row r="613" ht="13.5" customHeight="1"/>
+    <row r="614" ht="13.5" customHeight="1"/>
+    <row r="615" ht="13.5" customHeight="1"/>
+    <row r="616" ht="13.5" customHeight="1"/>
+    <row r="617" ht="13.5" customHeight="1"/>
+    <row r="618" ht="13.5" customHeight="1"/>
+    <row r="619" ht="13.5" customHeight="1"/>
+    <row r="620" ht="13.5" customHeight="1"/>
+    <row r="621" ht="13.5" customHeight="1"/>
+    <row r="622" ht="13.5" customHeight="1"/>
+    <row r="623" ht="13.5" customHeight="1"/>
+    <row r="624" ht="13.5" customHeight="1"/>
+    <row r="625" ht="13.5" customHeight="1"/>
+    <row r="626" ht="13.5" customHeight="1"/>
+    <row r="627" ht="13.5" customHeight="1"/>
+    <row r="628" ht="13.5" customHeight="1"/>
+    <row r="629" ht="13.5" customHeight="1"/>
+    <row r="630" ht="13.5" customHeight="1"/>
+    <row r="631" ht="13.5" customHeight="1"/>
+    <row r="632" ht="13.5" customHeight="1"/>
+    <row r="633" ht="13.5" customHeight="1"/>
+    <row r="634" ht="13.5" customHeight="1"/>
+    <row r="635" ht="13.5" customHeight="1"/>
+    <row r="636" ht="13.5" customHeight="1"/>
+    <row r="637" ht="13.5" customHeight="1"/>
+    <row r="638" ht="13.5" customHeight="1"/>
+    <row r="639" ht="13.5" customHeight="1"/>
+    <row r="640" ht="13.5" customHeight="1"/>
+    <row r="641" ht="13.5" customHeight="1"/>
+    <row r="642" ht="13.5" customHeight="1"/>
+    <row r="643" ht="13.5" customHeight="1"/>
+    <row r="644" ht="13.5" customHeight="1"/>
+    <row r="645" ht="13.5" customHeight="1"/>
+    <row r="646" ht="13.5" customHeight="1"/>
+    <row r="647" ht="13.5" customHeight="1"/>
+    <row r="648" ht="13.5" customHeight="1"/>
+    <row r="649" ht="13.5" customHeight="1"/>
+    <row r="650" ht="13.5" customHeight="1"/>
+    <row r="651" ht="13.5" customHeight="1"/>
+    <row r="652" ht="13.5" customHeight="1"/>
+    <row r="653" ht="13.5" customHeight="1"/>
+    <row r="654" ht="13.5" customHeight="1"/>
+    <row r="655" ht="13.5" customHeight="1"/>
+    <row r="656" ht="13.5" customHeight="1"/>
+    <row r="657" ht="13.5" customHeight="1"/>
+    <row r="658" ht="13.5" customHeight="1"/>
+    <row r="659" ht="13.5" customHeight="1"/>
+    <row r="660" ht="13.5" customHeight="1"/>
+    <row r="661" ht="13.5" customHeight="1"/>
+    <row r="662" ht="13.5" customHeight="1"/>
+    <row r="663" ht="13.5" customHeight="1"/>
+    <row r="664" ht="13.5" customHeight="1"/>
+    <row r="665" ht="13.5" customHeight="1"/>
+    <row r="666" ht="13.5" customHeight="1"/>
+    <row r="667" ht="13.5" customHeight="1"/>
+    <row r="668" ht="13.5" customHeight="1"/>
+    <row r="669" ht="13.5" customHeight="1"/>
+    <row r="670" ht="13.5" customHeight="1"/>
+    <row r="671" ht="13.5" customHeight="1"/>
+    <row r="672" ht="13.5" customHeight="1"/>
+    <row r="673" ht="13.5" customHeight="1"/>
+    <row r="674" ht="13.5" customHeight="1"/>
+    <row r="675" ht="13.5" customHeight="1"/>
+    <row r="676" ht="13.5" customHeight="1"/>
+    <row r="677" ht="13.5" customHeight="1"/>
+    <row r="678" ht="13.5" customHeight="1"/>
+    <row r="679" ht="13.5" customHeight="1"/>
+    <row r="680" ht="13.5" customHeight="1"/>
+    <row r="681" ht="13.5" customHeight="1"/>
+    <row r="682" ht="13.5" customHeight="1"/>
+    <row r="683" ht="13.5" customHeight="1"/>
+    <row r="684" ht="13.5" customHeight="1"/>
+    <row r="685" ht="13.5" customHeight="1"/>
+    <row r="686" ht="13.5" customHeight="1"/>
+    <row r="687" ht="13.5" customHeight="1"/>
+    <row r="688" ht="13.5" customHeight="1"/>
+    <row r="689" ht="13.5" customHeight="1"/>
+    <row r="690" ht="13.5" customHeight="1"/>
+    <row r="691" ht="13.5" customHeight="1"/>
+    <row r="692" ht="13.5" customHeight="1"/>
+    <row r="693" ht="13.5" customHeight="1"/>
+    <row r="694" ht="13.5" customHeight="1"/>
+    <row r="695" ht="13.5" customHeight="1"/>
+    <row r="696" ht="13.5" customHeight="1"/>
+    <row r="697" ht="13.5" customHeight="1"/>
+    <row r="698" ht="13.5" customHeight="1"/>
+    <row r="699" ht="13.5" customHeight="1"/>
+    <row r="700" ht="13.5" customHeight="1"/>
+    <row r="701" ht="13.5" customHeight="1"/>
+    <row r="702" ht="13.5" customHeight="1"/>
+    <row r="703" ht="13.5" customHeight="1"/>
+    <row r="704" ht="13.5" customHeight="1"/>
+    <row r="705" ht="13.5" customHeight="1"/>
+    <row r="706" ht="13.5" customHeight="1"/>
+    <row r="707" ht="13.5" customHeight="1"/>
+    <row r="708" ht="13.5" customHeight="1"/>
+    <row r="709" ht="13.5" customHeight="1"/>
+    <row r="710" ht="13.5" customHeight="1"/>
+    <row r="711" ht="13.5" customHeight="1"/>
+    <row r="712" ht="13.5" customHeight="1"/>
+    <row r="713" ht="13.5" customHeight="1"/>
+    <row r="714" ht="13.5" customHeight="1"/>
+    <row r="715" ht="13.5" customHeight="1"/>
+    <row r="716" ht="13.5" customHeight="1"/>
+    <row r="717" ht="13.5" customHeight="1"/>
+    <row r="718" ht="13.5" customHeight="1"/>
+    <row r="719" ht="13.5" customHeight="1"/>
+    <row r="720" ht="13.5" customHeight="1"/>
+    <row r="721" ht="13.5" customHeight="1"/>
+    <row r="722" ht="13.5" customHeight="1"/>
+    <row r="723" ht="13.5" customHeight="1"/>
+    <row r="724" ht="13.5" customHeight="1"/>
+    <row r="725" ht="13.5" customHeight="1"/>
+    <row r="726" ht="13.5" customHeight="1"/>
+    <row r="727" ht="13.5" customHeight="1"/>
+    <row r="728" ht="13.5" customHeight="1"/>
+    <row r="729" ht="13.5" customHeight="1"/>
+    <row r="730" ht="13.5" customHeight="1"/>
+    <row r="731" ht="13.5" customHeight="1"/>
+    <row r="732" ht="13.5" customHeight="1"/>
+    <row r="733" ht="13.5" customHeight="1"/>
+    <row r="734" ht="13.5" customHeight="1"/>
+    <row r="735" ht="13.5" customHeight="1"/>
+    <row r="736" ht="13.5" customHeight="1"/>
+    <row r="737" ht="13.5" customHeight="1"/>
+    <row r="738" ht="13.5" customHeight="1"/>
+    <row r="739" ht="13.5" customHeight="1"/>
+    <row r="740" ht="13.5" customHeight="1"/>
+    <row r="741" ht="13.5" customHeight="1"/>
+    <row r="742" ht="13.5" customHeight="1"/>
+    <row r="743" ht="13.5" customHeight="1"/>
+    <row r="744" ht="13.5" customHeight="1"/>
+    <row r="745" ht="13.5" customHeight="1"/>
+    <row r="746" ht="13.5" customHeight="1"/>
+    <row r="747" ht="13.5" customHeight="1"/>
+    <row r="748" ht="13.5" customHeight="1"/>
+    <row r="749" ht="13.5" customHeight="1"/>
+    <row r="750" ht="13.5" customHeight="1"/>
+    <row r="751" ht="13.5" customHeight="1"/>
+    <row r="752" ht="13.5" customHeight="1"/>
+    <row r="753" ht="13.5" customHeight="1"/>
+    <row r="754" ht="13.5" customHeight="1"/>
+    <row r="755" ht="13.5" customHeight="1"/>
+    <row r="756" ht="13.5" customHeight="1"/>
+    <row r="757" ht="13.5" customHeight="1"/>
+    <row r="758" ht="13.5" customHeight="1"/>
+    <row r="759" ht="13.5" customHeight="1"/>
+    <row r="760" ht="13.5" customHeight="1"/>
+    <row r="761" ht="13.5" customHeight="1"/>
+    <row r="762" ht="13.5" customHeight="1"/>
+    <row r="763" ht="13.5" customHeight="1"/>
+    <row r="764" ht="13.5" customHeight="1"/>
+    <row r="765" ht="13.5" customHeight="1"/>
+    <row r="766" ht="13.5" customHeight="1"/>
+    <row r="767" ht="13.5" customHeight="1"/>
+    <row r="768" ht="13.5" customHeight="1"/>
+    <row r="769" ht="13.5" customHeight="1"/>
+    <row r="770" ht="13.5" customHeight="1"/>
+    <row r="771" ht="13.5" customHeight="1"/>
+    <row r="772" ht="13.5" customHeight="1"/>
+    <row r="773" ht="13.5" customHeight="1"/>
+    <row r="774" ht="13.5" customHeight="1"/>
+    <row r="775" ht="13.5" customHeight="1"/>
+    <row r="776" ht="13.5" customHeight="1"/>
+    <row r="777" ht="13.5" customHeight="1"/>
+    <row r="778" ht="13.5" customHeight="1"/>
+    <row r="779" ht="13.5" customHeight="1"/>
+    <row r="780" ht="13.5" customHeight="1"/>
+    <row r="781" ht="13.5" customHeight="1"/>
+    <row r="782" ht="13.5" customHeight="1"/>
+    <row r="783" ht="13.5" customHeight="1"/>
+    <row r="784" ht="13.5" customHeight="1"/>
+    <row r="785" ht="13.5" customHeight="1"/>
+    <row r="786" ht="13.5" customHeight="1"/>
+    <row r="787" ht="13.5" customHeight="1"/>
+    <row r="788" ht="13.5" customHeight="1"/>
+    <row r="789" ht="13.5" customHeight="1"/>
+    <row r="790" ht="13.5" customHeight="1"/>
+    <row r="791" ht="13.5" customHeight="1"/>
+    <row r="792" ht="13.5" customHeight="1"/>
+    <row r="793" ht="13.5" customHeight="1"/>
+    <row r="794" ht="13.5" customHeight="1"/>
+    <row r="795" ht="13.5" customHeight="1"/>
+    <row r="796" ht="13.5" customHeight="1"/>
+    <row r="797" ht="13.5" customHeight="1"/>
+    <row r="798" ht="13.5" customHeight="1"/>
+    <row r="799" ht="13.5" customHeight="1"/>
+    <row r="800" ht="13.5" customHeight="1"/>
+    <row r="801" ht="13.5" customHeight="1"/>
+    <row r="802" ht="13.5" customHeight="1"/>
+    <row r="803" ht="13.5" customHeight="1"/>
+    <row r="804" ht="13.5" customHeight="1"/>
+    <row r="805" ht="13.5" customHeight="1"/>
+    <row r="806" ht="13.5" customHeight="1"/>
+    <row r="807" ht="13.5" customHeight="1"/>
+    <row r="808" ht="13.5" customHeight="1"/>
+    <row r="809" ht="13.5" customHeight="1"/>
+    <row r="810" ht="13.5" customHeight="1"/>
+    <row r="811" ht="13.5" customHeight="1"/>
+    <row r="812" ht="13.5" customHeight="1"/>
+    <row r="813" ht="13.5" customHeight="1"/>
+    <row r="814" ht="13.5" customHeight="1"/>
+    <row r="815" ht="13.5" customHeight="1"/>
+    <row r="816" ht="13.5" customHeight="1"/>
+    <row r="817" ht="13.5" customHeight="1"/>
+    <row r="818" ht="13.5" customHeight="1"/>
+    <row r="819" ht="13.5" customHeight="1"/>
+    <row r="820" ht="13.5" customHeight="1"/>
+    <row r="821" ht="13.5" customHeight="1"/>
+    <row r="822" ht="13.5" customHeight="1"/>
+    <row r="823" ht="13.5" customHeight="1"/>
+    <row r="824" ht="13.5" customHeight="1"/>
+    <row r="825" ht="13.5" customHeight="1"/>
+    <row r="826" ht="13.5" customHeight="1"/>
+    <row r="827" ht="13.5" customHeight="1"/>
+    <row r="828" ht="13.5" customHeight="1"/>
+    <row r="829" ht="13.5" customHeight="1"/>
+    <row r="830" ht="13.5" customHeight="1"/>
+    <row r="831" ht="13.5" customHeight="1"/>
+    <row r="832" ht="13.5" customHeight="1"/>
+    <row r="833" ht="13.5" customHeight="1"/>
+    <row r="834" ht="13.5" customHeight="1"/>
+    <row r="835" ht="13.5" customHeight="1"/>
+    <row r="836" ht="13.5" customHeight="1"/>
+    <row r="837" ht="13.5" customHeight="1"/>
+    <row r="838" ht="13.5" customHeight="1"/>
+    <row r="839" ht="13.5" customHeight="1"/>
+    <row r="840" ht="13.5" customHeight="1"/>
+    <row r="841" ht="13.5" customHeight="1"/>
+    <row r="842" ht="13.5" customHeight="1"/>
+    <row r="843" ht="13.5" customHeight="1"/>
+    <row r="844" ht="13.5" customHeight="1"/>
+    <row r="845" ht="13.5" customHeight="1"/>
+    <row r="846" ht="13.5" customHeight="1"/>
+    <row r="847" ht="13.5" customHeight="1"/>
+    <row r="848" ht="13.5" customHeight="1"/>
+    <row r="849" ht="13.5" customHeight="1"/>
+    <row r="850" ht="13.5" customHeight="1"/>
+    <row r="851" ht="13.5" customHeight="1"/>
+    <row r="852" ht="13.5" customHeight="1"/>
+    <row r="853" ht="13.5" customHeight="1"/>
+    <row r="854" ht="13.5" customHeight="1"/>
+    <row r="855" ht="13.5" customHeight="1"/>
+    <row r="856" ht="13.5" customHeight="1"/>
+    <row r="857" ht="13.5" customHeight="1"/>
+    <row r="858" ht="13.5" customHeight="1"/>
+    <row r="859" ht="13.5" customHeight="1"/>
+    <row r="860" ht="13.5" customHeight="1"/>
+    <row r="861" ht="13.5" customHeight="1"/>
+    <row r="862" ht="13.5" customHeight="1"/>
+    <row r="863" ht="13.5" customHeight="1"/>
+    <row r="864" ht="13.5" customHeight="1"/>
+    <row r="865" ht="13.5" customHeight="1"/>
+    <row r="866" ht="13.5" customHeight="1"/>
+    <row r="867" ht="13.5" customHeight="1"/>
+    <row r="868" ht="13.5" customHeight="1"/>
+    <row r="869" ht="13.5" customHeight="1"/>
+    <row r="870" ht="13.5" customHeight="1"/>
+    <row r="871" ht="13.5" customHeight="1"/>
+    <row r="872" ht="13.5" customHeight="1"/>
+    <row r="873" ht="13.5" customHeight="1"/>
+    <row r="874" ht="13.5" customHeight="1"/>
+    <row r="875" ht="13.5" customHeight="1"/>
+    <row r="876" ht="13.5" customHeight="1"/>
+    <row r="877" ht="13.5" customHeight="1"/>
+    <row r="878" ht="13.5" customHeight="1"/>
+    <row r="879" ht="13.5" customHeight="1"/>
+    <row r="880" ht="13.5" customHeight="1"/>
+    <row r="881" ht="13.5" customHeight="1"/>
+    <row r="882" ht="13.5" customHeight="1"/>
+    <row r="883" ht="13.5" customHeight="1"/>
+    <row r="884" ht="13.5" customHeight="1"/>
+    <row r="885" ht="13.5" customHeight="1"/>
+    <row r="886" ht="13.5" customHeight="1"/>
+    <row r="887" ht="13.5" customHeight="1"/>
+    <row r="888" ht="13.5" customHeight="1"/>
+    <row r="889" ht="13.5" customHeight="1"/>
+    <row r="890" ht="13.5" customHeight="1"/>
+    <row r="891" ht="13.5" customHeight="1"/>
+    <row r="892" ht="13.5" customHeight="1"/>
+    <row r="893" ht="13.5" customHeight="1"/>
+    <row r="894" ht="13.5" customHeight="1"/>
+    <row r="895" ht="13.5" customHeight="1"/>
+    <row r="896" ht="13.5" customHeight="1"/>
+    <row r="897" ht="13.5" customHeight="1"/>
+    <row r="898" ht="13.5" customHeight="1"/>
+    <row r="899" ht="13.5" customHeight="1"/>
+    <row r="900" ht="13.5" customHeight="1"/>
+    <row r="901" ht="13.5" customHeight="1"/>
+    <row r="902" ht="13.5" customHeight="1"/>
+    <row r="903" ht="13.5" customHeight="1"/>
+    <row r="904" ht="13.5" customHeight="1"/>
+    <row r="905" ht="13.5" customHeight="1"/>
+    <row r="906" ht="13.5" customHeight="1"/>
+    <row r="907" ht="13.5" customHeight="1"/>
+    <row r="908" ht="13.5" customHeight="1"/>
+    <row r="909" ht="13.5" customHeight="1"/>
+    <row r="910" ht="13.5" customHeight="1"/>
+    <row r="911" ht="13.5" customHeight="1"/>
+    <row r="912" ht="13.5" customHeight="1"/>
+    <row r="913" ht="13.5" customHeight="1"/>
+    <row r="914" ht="13.5" customHeight="1"/>
+    <row r="915" ht="13.5" customHeight="1"/>
+    <row r="916" ht="13.5" customHeight="1"/>
+    <row r="917" ht="13.5" customHeight="1"/>
+    <row r="918" ht="13.5" customHeight="1"/>
+    <row r="919" ht="13.5" customHeight="1"/>
+    <row r="920" ht="13.5" customHeight="1"/>
+    <row r="921" ht="13.5" customHeight="1"/>
+    <row r="922" ht="13.5" customHeight="1"/>
+    <row r="923" ht="13.5" customHeight="1"/>
+    <row r="924" ht="13.5" customHeight="1"/>
+    <row r="925" ht="13.5" customHeight="1"/>
+    <row r="926" ht="13.5" customHeight="1"/>
+    <row r="927" ht="13.5" customHeight="1"/>
+    <row r="928" ht="13.5" customHeight="1"/>
+    <row r="929" ht="13.5" customHeight="1"/>
+    <row r="930" ht="13.5" customHeight="1"/>
+    <row r="931" ht="13.5" customHeight="1"/>
+    <row r="932" ht="13.5" customHeight="1"/>
+    <row r="933" ht="13.5" customHeight="1"/>
+    <row r="934" ht="13.5" customHeight="1"/>
+    <row r="935" ht="13.5" customHeight="1"/>
+    <row r="936" ht="13.5" customHeight="1"/>
+    <row r="937" ht="13.5" customHeight="1"/>
+    <row r="938" ht="13.5" customHeight="1"/>
+    <row r="939" ht="13.5" customHeight="1"/>
+    <row r="940" ht="13.5" customHeight="1"/>
+    <row r="941" ht="13.5" customHeight="1"/>
+    <row r="942" ht="13.5" customHeight="1"/>
+    <row r="943" ht="13.5" customHeight="1"/>
+    <row r="944" ht="13.5" customHeight="1"/>
+    <row r="945" ht="13.5" customHeight="1"/>
+    <row r="946" ht="13.5" customHeight="1"/>
+    <row r="947" ht="13.5" customHeight="1"/>
+    <row r="948" ht="13.5" customHeight="1"/>
+    <row r="949" ht="13.5" customHeight="1"/>
+    <row r="950" ht="13.5" customHeight="1"/>
+    <row r="951" ht="13.5" customHeight="1"/>
+    <row r="952" ht="13.5" customHeight="1"/>
+    <row r="953" ht="13.5" customHeight="1"/>
+    <row r="954" ht="13.5" customHeight="1"/>
+    <row r="955" ht="13.5" customHeight="1"/>
+    <row r="956" ht="13.5" customHeight="1"/>
+    <row r="957" ht="13.5" customHeight="1"/>
+    <row r="958" ht="13.5" customHeight="1"/>
+    <row r="959" ht="13.5" customHeight="1"/>
+    <row r="960" ht="13.5" customHeight="1"/>
+    <row r="961" ht="13.5" customHeight="1"/>
+    <row r="962" ht="13.5" customHeight="1"/>
+    <row r="963" ht="13.5" customHeight="1"/>
+    <row r="964" ht="13.5" customHeight="1"/>
+    <row r="965" ht="13.5" customHeight="1"/>
+    <row r="966" ht="13.5" customHeight="1"/>
+    <row r="967" ht="13.5" customHeight="1"/>
+    <row r="968" ht="13.5" customHeight="1"/>
+    <row r="969" ht="13.5" customHeight="1"/>
+    <row r="970" ht="13.5" customHeight="1"/>
+    <row r="971" ht="13.5" customHeight="1"/>
+    <row r="972" ht="13.5" customHeight="1"/>
+    <row r="973" ht="13.5" customHeight="1"/>
+    <row r="974" ht="13.5" customHeight="1"/>
+    <row r="975" ht="13.5" customHeight="1"/>
+    <row r="976" ht="13.5" customHeight="1"/>
+    <row r="977" ht="13.5" customHeight="1"/>
+    <row r="978" ht="13.5" customHeight="1"/>
+    <row r="979" ht="13.5" customHeight="1"/>
+    <row r="980" ht="13.5" customHeight="1"/>
+    <row r="981" ht="13.5" customHeight="1"/>
+    <row r="982" ht="13.5" customHeight="1"/>
+    <row r="983" ht="13.5" customHeight="1"/>
+    <row r="984" ht="13.5" customHeight="1"/>
+    <row r="985" ht="13.5" customHeight="1"/>
+    <row r="986" ht="13.5" customHeight="1"/>
+    <row r="987" ht="13.5" customHeight="1"/>
+    <row r="988" ht="13.5" customHeight="1"/>
+    <row r="989" ht="13.5" customHeight="1"/>
+    <row r="990" ht="13.5" customHeight="1"/>
+    <row r="991" ht="13.5" customHeight="1"/>
+    <row r="992" ht="13.5" customHeight="1"/>
+    <row r="993" ht="13.5" customHeight="1"/>
+    <row r="994" ht="13.5" customHeight="1"/>
+    <row r="995" ht="13.5" customHeight="1"/>
+    <row r="996" ht="13.5" customHeight="1"/>
+    <row r="997" ht="13.5" customHeight="1"/>
+    <row r="998" ht="13.5" customHeight="1"/>
+    <row r="999" ht="13.5" customHeight="1"/>
+    <row r="1000" ht="13.5" customHeight="1"/>
+    <row r="1001" ht="13.5" customHeight="1"/>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:B1008"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="26" width="8.63"/>
+    <col min="1" max="26" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.5" customHeight="1">
+    <row r="1" spans="1:2" ht="13.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="2" ht="13.5" customHeight="1">
+      <c r="B1" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="13.5" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="3" ht="13.5" customHeight="1">
+      <c r="B2" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="13.5" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="13.5" customHeight="1">
+    <row r="4" spans="1:2" ht="13.5" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" ht="13.5" customHeight="1">
+    <row r="5" spans="1:2" ht="13.5" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="6" ht="13.5" customHeight="1">
+      <c r="B5" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="13.5" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" ht="13.5" customHeight="1">
-      <c r="A7" s="4" t="s">
+    <row r="7" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4"/>
-    </row>
-    <row r="8" ht="13.5" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" ht="13.5" customHeight="1">
-      <c r="A9" s="3" t="s">
-        <v>113</v>
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A9" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" ht="13.5" customHeight="1">
-      <c r="A10" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" ht="13.5" customHeight="1">
-      <c r="A11" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12" ht="13.5" customHeight="1">
-      <c r="A12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" ht="13.5" customHeight="1">
-      <c r="A13" s="3" t="s">
+    <row r="13" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" ht="13.5" customHeight="1">
-      <c r="A14" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A14" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="15" ht="13.5" customHeight="1">
-      <c r="A15" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="16" ht="13.5" customHeight="1">
-      <c r="A16" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A16" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B16" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" ht="13.5" customHeight="1">
-      <c r="A17" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="18" ht="13.5" customHeight="1">
-      <c r="A18" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" ht="13.5" customHeight="1">
-      <c r="A19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" ht="13.5" customHeight="1">
-      <c r="A20" s="7"/>
+    <row r="17" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A17" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A19" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A20" s="6"/>
       <c r="B20" s="1"/>
     </row>
-    <row r="21" ht="13.5" customHeight="1">
-      <c r="A21" s="4" t="s">
-        <v>30</v>
+    <row r="21" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A21" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B21" s="1"/>
     </row>
-    <row r="22" ht="13.5" customHeight="1">
-      <c r="A22" s="3" t="s">
-        <v>31</v>
+    <row r="22" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A22" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B22" s="1"/>
     </row>
-    <row r="23" ht="13.5" customHeight="1"/>
-    <row r="24" ht="13.5" customHeight="1">
-      <c r="A24" s="4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" ht="13.5" customHeight="1">
-      <c r="A25" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" ht="13.5" customHeight="1">
-      <c r="A26" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" ht="13.5" customHeight="1">
-      <c r="A27" s="3" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="28" ht="13.5" customHeight="1">
-      <c r="A28" s="9" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="29" ht="13.5" customHeight="1"/>
-    <row r="30" ht="13.5" customHeight="1"/>
-    <row r="31" ht="13.5" customHeight="1"/>
-    <row r="32" ht="13.5" customHeight="1"/>
+    <row r="23" spans="1:2" ht="13.5" customHeight="1"/>
+    <row r="24" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A24" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A25" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A26" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A27" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="13.5" customHeight="1">
+      <c r="A28" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="13.5" customHeight="1"/>
+    <row r="30" spans="1:2" ht="13.5" customHeight="1"/>
+    <row r="31" spans="1:2" ht="13.5" customHeight="1"/>
+    <row r="32" spans="1:2" ht="13.5" customHeight="1"/>
     <row r="33" ht="13.5" customHeight="1"/>
     <row r="34" ht="13.5" customHeight="1"/>
     <row r="35" ht="13.5" customHeight="1"/>
@@ -8541,11 +8223,9 @@
     <row r="1008" ht="13.5" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="B1"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{00000000-0004-0000-0500-000000000000}"/>
   </hyperlinks>
-  <printOptions/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>